--- a/Code/Results/Cases/Case_7_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.34833151746449</v>
+        <v>12.93107323408403</v>
       </c>
       <c r="C2">
-        <v>9.144920181347498</v>
+        <v>7.453071406243063</v>
       </c>
       <c r="D2">
-        <v>1.915004165555474</v>
+        <v>4.769930303539038</v>
       </c>
       <c r="E2">
-        <v>6.532237510100106</v>
+        <v>7.942953177859052</v>
       </c>
       <c r="F2">
-        <v>43.58023413334831</v>
+        <v>27.8060364655407</v>
       </c>
       <c r="G2">
-        <v>2.158454045204574</v>
+        <v>2.142495306770606</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.49788515250224</v>
+        <v>6.450095218101611</v>
       </c>
       <c r="K2">
-        <v>14.21404498929137</v>
+        <v>10.33799800390087</v>
       </c>
       <c r="L2">
-        <v>6.165311541646984</v>
+        <v>6.181755303238075</v>
       </c>
       <c r="M2">
-        <v>11.93810695376085</v>
+        <v>9.754545003875762</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>33.44440759730325</v>
+        <v>21.1929256731532</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.35158944822422</v>
+        <v>12.16908481286198</v>
       </c>
       <c r="C3">
-        <v>8.5869829260833</v>
+        <v>7.424883618166475</v>
       </c>
       <c r="D3">
-        <v>1.871273001602413</v>
+        <v>4.633463163272279</v>
       </c>
       <c r="E3">
-        <v>6.553545205937299</v>
+        <v>7.956694878295009</v>
       </c>
       <c r="F3">
-        <v>42.57172449598844</v>
+        <v>27.77174433932786</v>
       </c>
       <c r="G3">
-        <v>2.168138143222279</v>
+        <v>2.147520818685386</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.533812342270235</v>
+        <v>6.501286683082422</v>
       </c>
       <c r="K3">
-        <v>13.43509755844608</v>
+        <v>9.736489728109362</v>
       </c>
       <c r="L3">
-        <v>6.135361024721949</v>
+        <v>6.121213258488109</v>
       </c>
       <c r="M3">
-        <v>11.61407555193875</v>
+        <v>9.479248811183016</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>32.73658490688851</v>
+        <v>21.27920971332334</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.72407649286846</v>
+        <v>11.68007568034026</v>
       </c>
       <c r="C4">
-        <v>8.228140504487312</v>
+        <v>7.408004449297194</v>
       </c>
       <c r="D4">
-        <v>1.84487154379869</v>
+        <v>4.54921540088565</v>
       </c>
       <c r="E4">
-        <v>6.567545416582818</v>
+        <v>7.967809395553793</v>
       </c>
       <c r="F4">
-        <v>41.97023862800889</v>
+        <v>27.76858991333808</v>
       </c>
       <c r="G4">
-        <v>2.174235970310328</v>
+        <v>2.150706519057508</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.556584156861188</v>
+        <v>6.53379649894446</v>
       </c>
       <c r="K4">
-        <v>12.94459210493443</v>
+        <v>9.34761848033423</v>
       </c>
       <c r="L4">
-        <v>6.119743139257489</v>
+        <v>6.085679576248744</v>
       </c>
       <c r="M4">
-        <v>11.41864871071091</v>
+        <v>9.30947939778496</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>32.31667930291526</v>
+        <v>21.3449748311358</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.46474467197886</v>
+        <v>11.47563138202882</v>
       </c>
       <c r="C5">
-        <v>8.077803653443823</v>
+        <v>7.401232516581531</v>
       </c>
       <c r="D5">
-        <v>1.834213181099855</v>
+        <v>4.514817392195685</v>
       </c>
       <c r="E5">
-        <v>6.573478870751264</v>
+        <v>7.973001844769284</v>
       </c>
       <c r="F5">
-        <v>41.72964907969829</v>
+        <v>27.77167808541336</v>
       </c>
       <c r="G5">
-        <v>2.176760952809699</v>
+        <v>2.152030380585432</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.566046739095908</v>
+        <v>6.547319253840089</v>
       </c>
       <c r="K5">
-        <v>12.74185329055509</v>
+        <v>9.184272685957559</v>
       </c>
       <c r="L5">
-        <v>6.114064772467793</v>
+        <v>6.071618428059825</v>
       </c>
       <c r="M5">
-        <v>11.33998023054643</v>
+        <v>9.240206693278648</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>32.14926612094411</v>
+        <v>21.37488489700751</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.42147403751244</v>
+        <v>11.44137640274829</v>
       </c>
       <c r="C6">
-        <v>8.052592164668368</v>
+        <v>7.400114439252309</v>
       </c>
       <c r="D6">
-        <v>1.832449086472481</v>
+        <v>4.509103086963007</v>
       </c>
       <c r="E6">
-        <v>6.574477838387213</v>
+        <v>7.973903812016797</v>
       </c>
       <c r="F6">
-        <v>41.68997413842446</v>
+        <v>27.77245125394362</v>
       </c>
       <c r="G6">
-        <v>2.177182697715262</v>
+        <v>2.152251771378471</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.567629145072308</v>
+        <v>6.549581395714389</v>
       </c>
       <c r="K6">
-        <v>12.70802374751247</v>
+        <v>9.156855989204201</v>
       </c>
       <c r="L6">
-        <v>6.11316299627693</v>
+        <v>6.069309086744068</v>
       </c>
       <c r="M6">
-        <v>11.32697840737678</v>
+        <v>9.228701431653212</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>32.12169098168859</v>
+        <v>21.38003627564777</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.7205932682259</v>
+        <v>11.67733918049265</v>
       </c>
       <c r="C7">
-        <v>8.226129643792234</v>
+        <v>7.407912691090504</v>
       </c>
       <c r="D7">
-        <v>1.844727410575271</v>
+        <v>4.548751700095114</v>
       </c>
       <c r="E7">
-        <v>6.567624515947291</v>
+        <v>7.967876750604655</v>
       </c>
       <c r="F7">
-        <v>41.96697557019827</v>
+        <v>27.76861402315915</v>
       </c>
       <c r="G7">
-        <v>2.174269858437475</v>
+        <v>2.150724268544521</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.556711027254108</v>
+        <v>6.53397775435688</v>
       </c>
       <c r="K7">
-        <v>12.94186912446333</v>
+        <v>9.345435232706581</v>
       </c>
       <c r="L7">
-        <v>6.119663795603588</v>
+        <v>6.085488237089436</v>
       </c>
       <c r="M7">
-        <v>11.4175837235557</v>
+        <v>9.308545398321275</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>32.314406516138</v>
+        <v>21.34536575211739</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.0080252525278</v>
+        <v>12.67280637738048</v>
       </c>
       <c r="C8">
-        <v>8.955906459023264</v>
+        <v>7.443262589833852</v>
       </c>
       <c r="D8">
-        <v>1.899824363821051</v>
+        <v>4.722999332852384</v>
       </c>
       <c r="E8">
-        <v>6.539392508269031</v>
+        <v>7.947129664512723</v>
       </c>
       <c r="F8">
-        <v>43.22885195335876</v>
+        <v>27.79042101121201</v>
       </c>
       <c r="G8">
-        <v>2.161762816977789</v>
+        <v>2.14420766067079</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.510127322948764</v>
+        <v>6.467524525101016</v>
       </c>
       <c r="K8">
-        <v>13.94811925841491</v>
+        <v>10.13467184059923</v>
       </c>
       <c r="L8">
-        <v>6.15440273236344</v>
+        <v>6.160544463491043</v>
       </c>
       <c r="M8">
-        <v>11.82569617045197</v>
+        <v>9.659830999675208</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>33.19730223785447</v>
+        <v>21.21995858272674</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.40026897825945</v>
+        <v>14.4523001835829</v>
       </c>
       <c r="C9">
-        <v>10.25927572384045</v>
+        <v>7.516048114861968</v>
       </c>
       <c r="D9">
-        <v>2.012077374484499</v>
+        <v>5.059102647221397</v>
       </c>
       <c r="E9">
-        <v>6.491432127726643</v>
+        <v>7.928138956065702</v>
       </c>
       <c r="F9">
-        <v>45.8420153511768</v>
+        <v>27.9808171515667</v>
       </c>
       <c r="G9">
-        <v>2.138347005975002</v>
+        <v>2.132197812193683</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.424246894314033</v>
+        <v>6.345591604379537</v>
       </c>
       <c r="K9">
-        <v>15.94844889192277</v>
+        <v>11.52634701372448</v>
       </c>
       <c r="L9">
-        <v>6.245015145497535</v>
+        <v>6.320411706271302</v>
       </c>
       <c r="M9">
-        <v>12.65070326880885</v>
+        <v>10.33898315877885</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>35.04530450433634</v>
+        <v>21.08033256188667</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.06873182587229</v>
+        <v>15.64990999573059</v>
       </c>
       <c r="C10">
-        <v>11.14174087277727</v>
+        <v>7.571746765500577</v>
       </c>
       <c r="D10">
-        <v>2.098133961055527</v>
+        <v>5.30022268622104</v>
       </c>
       <c r="E10">
-        <v>6.460913936533198</v>
+        <v>7.928044219095058</v>
       </c>
       <c r="F10">
-        <v>47.84486504989113</v>
+        <v>28.21817342609415</v>
       </c>
       <c r="G10">
-        <v>2.121677391807454</v>
+        <v>2.123807312495165</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.364210393796641</v>
+        <v>6.260867486611386</v>
       </c>
       <c r="K10">
-        <v>17.49681970422663</v>
+        <v>12.45318790520002</v>
       </c>
       <c r="L10">
-        <v>6.32600478429491</v>
+        <v>6.445140131141665</v>
       </c>
       <c r="M10">
-        <v>13.26808518834903</v>
+        <v>10.8273160620075</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>36.47498339364288</v>
+        <v>21.04940013741461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.8076955812071</v>
+        <v>16.2099426807366</v>
       </c>
       <c r="C11">
-        <v>11.52771494340635</v>
+        <v>7.597597130470128</v>
       </c>
       <c r="D11">
-        <v>2.138329659481865</v>
+        <v>5.408216107978447</v>
       </c>
       <c r="E11">
-        <v>6.448111753609702</v>
+        <v>7.931149003947412</v>
       </c>
       <c r="F11">
-        <v>48.77421959509849</v>
+        <v>28.34885699010794</v>
       </c>
       <c r="G11">
-        <v>2.11417426817381</v>
+        <v>2.120075948580491</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.337495902641001</v>
+        <v>6.223322708367217</v>
       </c>
       <c r="K11">
-        <v>18.17141073441619</v>
+        <v>12.85413297610675</v>
       </c>
       <c r="L11">
-        <v>6.366142342415499</v>
+        <v>6.503359976590081</v>
       </c>
       <c r="M11">
-        <v>13.55080422088298</v>
+        <v>11.0463076014072</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>37.14151825200985</v>
+        <v>21.05241843057583</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.08464355699773</v>
+        <v>16.41906329059369</v>
       </c>
       <c r="C12">
-        <v>11.67173309280548</v>
+        <v>7.607462335864752</v>
       </c>
       <c r="D12">
-        <v>2.153727562309316</v>
+        <v>5.448835592531358</v>
       </c>
       <c r="E12">
-        <v>6.44342511533852</v>
+        <v>7.932788942257346</v>
       </c>
       <c r="F12">
-        <v>49.12882556325657</v>
+        <v>28.40173028489353</v>
       </c>
       <c r="G12">
-        <v>2.111341208413565</v>
+        <v>2.118674548441599</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.327459555838817</v>
+        <v>6.209244009580895</v>
       </c>
       <c r="K12">
-        <v>18.42273185100045</v>
+        <v>13.00299972152447</v>
       </c>
       <c r="L12">
-        <v>6.381829619164622</v>
+        <v>6.525610404759485</v>
       </c>
       <c r="M12">
-        <v>13.65809954428489</v>
+        <v>11.12871934420608</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>37.39631366388746</v>
+        <v>21.05614884828696</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.02512556534975</v>
+        <v>16.37422141406207</v>
       </c>
       <c r="C13">
-        <v>11.64081002612547</v>
+        <v>7.605334253677077</v>
       </c>
       <c r="D13">
-        <v>2.15040303762792</v>
+        <v>5.440100168868132</v>
       </c>
       <c r="E13">
-        <v>6.444427190171464</v>
+        <v>7.932414919337935</v>
       </c>
       <c r="F13">
-        <v>49.05233427811038</v>
+        <v>28.3901905794339</v>
       </c>
       <c r="G13">
-        <v>2.111951049629721</v>
+        <v>2.118975861509221</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.329617611253973</v>
+        <v>6.212270016512728</v>
       </c>
       <c r="K13">
-        <v>18.36878657840384</v>
+        <v>12.9710701219792</v>
       </c>
       <c r="L13">
-        <v>6.378429135587814</v>
+        <v>6.520809452966706</v>
       </c>
       <c r="M13">
-        <v>13.63498145236429</v>
+        <v>11.11099434040151</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>37.34133105336666</v>
+        <v>21.05522825696296</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.83053785949648</v>
+        <v>16.22723555106283</v>
       </c>
       <c r="C14">
-        <v>11.53960581462627</v>
+        <v>7.598407203582466</v>
       </c>
       <c r="D14">
-        <v>2.139592751576274</v>
+        <v>5.411563583085981</v>
       </c>
       <c r="E14">
-        <v>6.44772291183865</v>
+        <v>7.931274551937788</v>
       </c>
       <c r="F14">
-        <v>48.80333905973641</v>
+        <v>28.35313836128189</v>
       </c>
       <c r="G14">
-        <v>2.113941046223907</v>
+        <v>2.119960426563815</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.33666864180618</v>
+        <v>6.222161692883486</v>
       </c>
       <c r="K14">
-        <v>18.19216897390056</v>
+        <v>12.86643962057192</v>
       </c>
       <c r="L14">
-        <v>6.367423076345494</v>
+        <v>6.50518649857008</v>
       </c>
       <c r="M14">
-        <v>13.55962688114228</v>
+        <v>11.05309832722242</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>37.16243195922312</v>
+        <v>21.05267272271105</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.71097272005699</v>
+        <v>16.13662770411618</v>
       </c>
       <c r="C15">
-        <v>11.47733902792816</v>
+        <v>7.594174192751645</v>
       </c>
       <c r="D15">
-        <v>2.132994979997362</v>
+        <v>5.394047371794543</v>
       </c>
       <c r="E15">
-        <v>6.449762829547742</v>
+        <v>7.93063684638083</v>
       </c>
       <c r="F15">
-        <v>48.65117367297847</v>
+        <v>28.33088733110048</v>
       </c>
       <c r="G15">
-        <v>2.115160942066513</v>
+        <v>2.120564988151269</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.340997815933846</v>
+        <v>6.228238551823821</v>
       </c>
       <c r="K15">
-        <v>18.08345218674524</v>
+        <v>12.8019650479042</v>
       </c>
       <c r="L15">
-        <v>6.360745552034549</v>
+        <v>6.495643268542207</v>
       </c>
       <c r="M15">
-        <v>13.51350001489871</v>
+        <v>11.0175664874164</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>37.05316531213321</v>
+        <v>21.05144825596016</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.02003463916862</v>
+        <v>15.61540430323757</v>
       </c>
       <c r="C16">
-        <v>11.11621209299154</v>
+        <v>7.570067907948527</v>
       </c>
       <c r="D16">
-        <v>2.095530303174974</v>
+        <v>5.293128185124232</v>
       </c>
       <c r="E16">
-        <v>6.461772815520478</v>
+        <v>7.927905641149071</v>
       </c>
       <c r="F16">
-        <v>47.78450049052174</v>
+        <v>28.21010030204425</v>
       </c>
       <c r="G16">
-        <v>2.12216907461872</v>
+        <v>2.124052826921737</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.365967756626858</v>
+        <v>6.26334079046927</v>
       </c>
       <c r="K16">
-        <v>17.45214693756747</v>
+        <v>12.42656990781801</v>
       </c>
       <c r="L16">
-        <v>6.323449191691529</v>
+        <v>6.441364339154894</v>
       </c>
       <c r="M16">
-        <v>13.2496432796753</v>
+        <v>10.81293550788857</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>36.43175424760669</v>
+        <v>21.04955781562658</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.59102151590611</v>
+        <v>15.31028140819669</v>
       </c>
       <c r="C17">
-        <v>10.89076599953891</v>
+        <v>7.555412494975219</v>
       </c>
       <c r="D17">
-        <v>2.07283271486342</v>
+        <v>5.230760022041896</v>
       </c>
       <c r="E17">
-        <v>6.469421224640764</v>
+        <v>7.927044544951971</v>
       </c>
       <c r="F17">
-        <v>47.25752429010745</v>
+        <v>28.14190457650245</v>
       </c>
       <c r="G17">
-        <v>2.126486587869218</v>
+        <v>2.126213913412005</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.381434720006431</v>
+        <v>6.285126913252026</v>
       </c>
       <c r="K17">
-        <v>17.05733806769498</v>
+        <v>12.19098679434097</v>
       </c>
       <c r="L17">
-        <v>6.301422742132721</v>
+        <v>6.408438642088031</v>
       </c>
       <c r="M17">
-        <v>13.08822622632178</v>
+        <v>10.68654671123971</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>36.05471873620413</v>
+        <v>21.05286669548157</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.34237656038928</v>
+        <v>15.13249290972158</v>
       </c>
       <c r="C18">
-        <v>10.75963419186266</v>
+        <v>7.547031185855232</v>
       </c>
       <c r="D18">
-        <v>2.059874560335883</v>
+        <v>5.194729783384808</v>
       </c>
       <c r="E18">
-        <v>6.473921703324721</v>
+        <v>7.926844855493631</v>
       </c>
       <c r="F18">
-        <v>46.95613337197233</v>
+        <v>28.10481065903839</v>
       </c>
       <c r="G18">
-        <v>2.128977650857574</v>
+        <v>2.127465007418551</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.390387429383275</v>
+        <v>6.297751811955451</v>
       </c>
       <c r="K18">
-        <v>16.82744251281081</v>
+        <v>12.05353810442406</v>
       </c>
       <c r="L18">
-        <v>6.289062931175635</v>
+        <v>6.389640517507623</v>
       </c>
       <c r="M18">
-        <v>12.99556040747032</v>
+        <v>10.61355762334285</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>35.83937384553602</v>
+        <v>21.05637046790722</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.25786616814112</v>
+        <v>15.07190446083181</v>
       </c>
       <c r="C19">
-        <v>10.71498196982934</v>
+        <v>7.544201608234251</v>
       </c>
       <c r="D19">
-        <v>2.055503062506233</v>
+        <v>5.182504505493459</v>
       </c>
       <c r="E19">
-        <v>6.475462725756954</v>
+        <v>7.926827663041062</v>
       </c>
       <c r="F19">
-        <v>46.85438061348196</v>
+        <v>28.09261347515426</v>
       </c>
       <c r="G19">
-        <v>2.129822506475426</v>
+        <v>2.127890017510125</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.393428542125877</v>
+        <v>6.302042684737125</v>
       </c>
       <c r="K19">
-        <v>16.7491165746213</v>
+        <v>12.00666560389333</v>
       </c>
       <c r="L19">
-        <v>6.284930807046056</v>
+        <v>6.383300094780312</v>
       </c>
       <c r="M19">
-        <v>12.96421700216625</v>
+        <v>10.58879636484867</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>35.76672053508189</v>
+        <v>21.05782777613786</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.63688624323153</v>
+        <v>15.3429994747546</v>
       </c>
       <c r="C20">
-        <v>10.91491579511514</v>
+        <v>7.556967593775968</v>
       </c>
       <c r="D20">
-        <v>2.075238707037851</v>
+        <v>5.237415785253608</v>
       </c>
       <c r="E20">
-        <v>6.46859651314544</v>
+        <v>7.927105534555859</v>
       </c>
       <c r="F20">
-        <v>47.3134443738709</v>
+        <v>28.14894274908984</v>
       </c>
       <c r="G20">
-        <v>2.126026202484574</v>
+        <v>2.125983029358586</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.379782426774182</v>
+        <v>6.28279803747607</v>
       </c>
       <c r="K20">
-        <v>17.09965613806673</v>
+        <v>12.21626651576494</v>
       </c>
       <c r="L20">
-        <v>6.303735393139808</v>
+        <v>6.411929229064333</v>
       </c>
       <c r="M20">
-        <v>13.10539131511303</v>
+        <v>10.70003187459525</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>36.09469751470055</v>
+        <v>21.05234787220845</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.88777098228828</v>
+        <v>16.27052854919801</v>
       </c>
       <c r="C21">
-        <v>11.56938935798331</v>
+        <v>7.600439755668289</v>
       </c>
       <c r="D21">
-        <v>2.142762974545102</v>
+        <v>5.419953175686739</v>
       </c>
       <c r="E21">
-        <v>6.446750450005312</v>
+        <v>7.93159681338641</v>
       </c>
       <c r="F21">
-        <v>48.8764016010911</v>
+        <v>28.36392864645403</v>
       </c>
       <c r="G21">
-        <v>2.113356341170887</v>
+        <v>2.119670927369301</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.334595465883229</v>
+        <v>6.219252541451101</v>
       </c>
       <c r="K21">
-        <v>18.24415671862442</v>
+        <v>12.89725241793516</v>
       </c>
       <c r="L21">
-        <v>6.370642456809322</v>
+        <v>6.509769877946421</v>
       </c>
       <c r="M21">
-        <v>13.58175413371018</v>
+        <v>11.07011824025586</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>37.21491331099446</v>
+        <v>21.05335207162037</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.69913866893401</v>
+        <v>16.8710320847345</v>
       </c>
       <c r="C22">
-        <v>11.98468868514597</v>
+        <v>7.629297067412548</v>
       </c>
       <c r="D22">
-        <v>2.187938587157825</v>
+        <v>5.537635282531232</v>
       </c>
       <c r="E22">
-        <v>6.433416257417162</v>
+        <v>7.937243497870392</v>
       </c>
       <c r="F22">
-        <v>49.91356291163973</v>
+        <v>28.52422603188667</v>
       </c>
       <c r="G22">
-        <v>2.105121913474147</v>
+        <v>2.115612776684529</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.30552546252407</v>
+        <v>6.178528013881253</v>
       </c>
       <c r="K22">
-        <v>18.96815092110247</v>
+        <v>13.32505766989175</v>
       </c>
       <c r="L22">
-        <v>6.417222515247821</v>
+        <v>6.574898487935782</v>
       </c>
       <c r="M22">
-        <v>13.8944549032296</v>
+        <v>11.30896232176812</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.9610434610801</v>
+        <v>21.06915244323005</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.26267341152638</v>
+        <v>16.55287272393679</v>
       </c>
       <c r="C23">
-        <v>11.7641431624058</v>
+        <v>7.613853681379504</v>
       </c>
       <c r="D23">
-        <v>2.163722347184161</v>
+        <v>5.474983575430826</v>
       </c>
       <c r="E23">
-        <v>6.440444435227488</v>
+        <v>7.933977788147538</v>
       </c>
       <c r="F23">
-        <v>49.35854530837829</v>
+        <v>28.43682224212857</v>
       </c>
       <c r="G23">
-        <v>2.109513751847798</v>
+        <v>2.117772788038852</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.32100046916811</v>
+        <v>6.200191278571167</v>
       </c>
       <c r="K23">
-        <v>18.58388450952924</v>
+        <v>13.09830397105005</v>
       </c>
       <c r="L23">
-        <v>6.392095784224374</v>
+        <v>6.54003270551166</v>
       </c>
       <c r="M23">
-        <v>13.7274420948383</v>
+        <v>11.18178242576466</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>37.56150732816015</v>
+        <v>21.05929009238936</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.61615702765095</v>
+        <v>15.32821501466722</v>
       </c>
       <c r="C24">
-        <v>10.90400241253547</v>
+        <v>7.556264395860976</v>
       </c>
       <c r="D24">
-        <v>2.074150676467517</v>
+        <v>5.234407254069174</v>
       </c>
       <c r="E24">
-        <v>6.46896904386554</v>
+        <v>7.927077042028572</v>
       </c>
       <c r="F24">
-        <v>47.28815800267011</v>
+        <v>28.14575421981062</v>
       </c>
       <c r="G24">
-        <v>2.126234314854278</v>
+        <v>2.126087385022709</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.380529239517112</v>
+        <v>6.283850611116501</v>
       </c>
       <c r="K24">
-        <v>17.08053322809675</v>
+        <v>12.20484381152248</v>
       </c>
       <c r="L24">
-        <v>6.302688899379413</v>
+        <v>6.410350725042985</v>
       </c>
       <c r="M24">
-        <v>13.09763055528565</v>
+        <v>10.69393624436964</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>36.07661869739836</v>
+        <v>21.05257745384901</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.76834931824872</v>
+        <v>13.9899402214503</v>
       </c>
       <c r="C25">
-        <v>9.920113194679827</v>
+        <v>7.495976094099806</v>
       </c>
       <c r="D25">
-        <v>1.981162010360662</v>
+        <v>4.969038635656193</v>
       </c>
       <c r="E25">
-        <v>6.503594989214384</v>
+        <v>7.930889114392094</v>
       </c>
       <c r="F25">
-        <v>45.1204768553234</v>
+        <v>27.91272210130063</v>
       </c>
       <c r="G25">
-        <v>2.144576689556134</v>
+        <v>2.135368030410539</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.446921346167633</v>
+        <v>6.377705625163232</v>
       </c>
       <c r="K25">
-        <v>15.35093668865072</v>
+        <v>11.16665172540555</v>
       </c>
       <c r="L25">
-        <v>6.218022725128187</v>
+        <v>6.275851592502518</v>
       </c>
       <c r="M25">
-        <v>12.42530139366302</v>
+        <v>10.15680851747719</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>34.53283988059812</v>
+        <v>21.10602966638933</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.93107323408403</v>
+        <v>25.29996711258983</v>
       </c>
       <c r="C2">
-        <v>7.453071406243063</v>
+        <v>18.71228480845788</v>
       </c>
       <c r="D2">
-        <v>4.769930303539038</v>
+        <v>3.712146929608842</v>
       </c>
       <c r="E2">
-        <v>7.942953177859052</v>
+        <v>30.09909619486762</v>
       </c>
       <c r="F2">
-        <v>27.8060364655407</v>
+        <v>17.2999510047735</v>
       </c>
       <c r="G2">
-        <v>2.142495306770606</v>
+        <v>2.043908991758983</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.450095218101611</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>10.33799800390087</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.181755303238075</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.754545003875762</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.1929256731532</v>
+        <v>12.85740437499542</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.16908481286198</v>
+        <v>23.62815818503517</v>
       </c>
       <c r="C3">
-        <v>7.424883618166475</v>
+        <v>17.57199810504744</v>
       </c>
       <c r="D3">
-        <v>4.633463163272279</v>
+        <v>3.59749845654561</v>
       </c>
       <c r="E3">
-        <v>7.956694878295009</v>
+        <v>27.88810281571637</v>
       </c>
       <c r="F3">
-        <v>27.77174433932786</v>
+        <v>16.59918913251503</v>
       </c>
       <c r="G3">
-        <v>2.147520818685386</v>
+        <v>2.051043767845687</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.501286683082422</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.736489728109362</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.121213258488109</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.479248811183016</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.27920971332334</v>
+        <v>12.58751217609845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.68007568034026</v>
+        <v>22.54360327761603</v>
       </c>
       <c r="C4">
-        <v>7.408004449297194</v>
+        <v>16.83526365874923</v>
       </c>
       <c r="D4">
-        <v>4.54921540088565</v>
+        <v>3.525577805703337</v>
       </c>
       <c r="E4">
-        <v>7.967809395553793</v>
+        <v>26.46895975988461</v>
       </c>
       <c r="F4">
-        <v>27.76858991333808</v>
+        <v>16.18963647903525</v>
       </c>
       <c r="G4">
-        <v>2.150706519057508</v>
+        <v>2.055526369339699</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.53379649894446</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.34761848033423</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.085679576248744</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.30947939778496</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.3449748311358</v>
+        <v>12.44897348634379</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.47563138202882</v>
+        <v>22.08694938015424</v>
       </c>
       <c r="C5">
-        <v>7.401232516581531</v>
+        <v>16.52587764114491</v>
       </c>
       <c r="D5">
-        <v>4.514817392195685</v>
+        <v>3.495912843721082</v>
       </c>
       <c r="E5">
-        <v>7.973001844769284</v>
+        <v>25.87476459299186</v>
       </c>
       <c r="F5">
-        <v>27.77167808541336</v>
+        <v>16.02808891136405</v>
       </c>
       <c r="G5">
-        <v>2.152030380585432</v>
+        <v>2.057380137012188</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.547319253840089</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9.184272685957559</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.071618428059825</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.240206693278648</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.37488489700751</v>
+        <v>12.39910515610754</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.44137640274829</v>
+        <v>22.01023280990493</v>
       </c>
       <c r="C6">
-        <v>7.400114439252309</v>
+        <v>16.47395282490028</v>
       </c>
       <c r="D6">
-        <v>4.509103086963007</v>
+        <v>3.490966312316485</v>
       </c>
       <c r="E6">
-        <v>7.973903812016797</v>
+        <v>25.77512858479972</v>
       </c>
       <c r="F6">
-        <v>27.77245125394362</v>
+        <v>16.00159092923039</v>
       </c>
       <c r="G6">
-        <v>2.152251771378471</v>
+        <v>2.057689629649815</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.549581395714389</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>9.156855989204201</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.069309086744068</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.228701431653212</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.38003627564777</v>
+        <v>12.39121446165234</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.67733918049265</v>
+        <v>22.53750426788429</v>
       </c>
       <c r="C7">
-        <v>7.407912691090504</v>
+        <v>16.83112818660624</v>
       </c>
       <c r="D7">
-        <v>4.548751700095114</v>
+        <v>3.525179139713713</v>
       </c>
       <c r="E7">
-        <v>7.967876750604655</v>
+        <v>26.46101104974448</v>
       </c>
       <c r="F7">
-        <v>27.76861402315915</v>
+        <v>16.18743596040851</v>
       </c>
       <c r="G7">
-        <v>2.150724268544521</v>
+        <v>2.055551258425103</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.53397775435688</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>9.345435232706581</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.085488237089436</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.308545398321275</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.34536575211739</v>
+        <v>12.44827462669668</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.67280637738048</v>
+        <v>24.73551876822907</v>
       </c>
       <c r="C8">
-        <v>7.443262589833852</v>
+        <v>18.32672470576468</v>
       </c>
       <c r="D8">
-        <v>4.722999332852384</v>
+        <v>3.672947966651937</v>
       </c>
       <c r="E8">
-        <v>7.947129664512723</v>
+        <v>29.34927899219528</v>
       </c>
       <c r="F8">
-        <v>27.79042101121201</v>
+        <v>17.05411325291634</v>
       </c>
       <c r="G8">
-        <v>2.14420766067079</v>
+        <v>2.046348848654694</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.467524525101016</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>10.13467184059923</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.160544463491043</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.659830999675208</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.21995858272674</v>
+        <v>12.75856900286794</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.4523001835829</v>
+        <v>28.58992846810313</v>
       </c>
       <c r="C9">
-        <v>7.516048114861968</v>
+        <v>20.96886708758744</v>
       </c>
       <c r="D9">
-        <v>5.059102647221397</v>
+        <v>3.949617738405444</v>
       </c>
       <c r="E9">
-        <v>7.928138956065702</v>
+        <v>34.54416360005666</v>
       </c>
       <c r="F9">
-        <v>27.9808171515667</v>
+        <v>18.91209816875172</v>
       </c>
       <c r="G9">
-        <v>2.132197812193683</v>
+        <v>2.029038174210597</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.345591604379537</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>11.52634701372448</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.320411706271302</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.33898315877885</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.08033256188667</v>
+        <v>13.5917046794574</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.64990999573059</v>
+        <v>31.1514239417783</v>
       </c>
       <c r="C10">
-        <v>7.571746765500577</v>
+        <v>22.73412734669459</v>
       </c>
       <c r="D10">
-        <v>5.30022268622104</v>
+        <v>4.143847419069983</v>
       </c>
       <c r="E10">
-        <v>7.928044219095058</v>
+        <v>38.10541674315342</v>
       </c>
       <c r="F10">
-        <v>28.21817342609415</v>
+        <v>20.38886581392279</v>
       </c>
       <c r="G10">
-        <v>2.123807312495165</v>
+        <v>2.016655865023571</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.260867486611386</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>12.45318790520002</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.445140131141665</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.8273160620075</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.04940013741461</v>
+        <v>14.35070574762169</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.2099426807366</v>
+        <v>32.25993359089109</v>
       </c>
       <c r="C11">
-        <v>7.597597130470128</v>
+        <v>23.49970860925279</v>
       </c>
       <c r="D11">
-        <v>5.408216107978447</v>
+        <v>4.230104353320488</v>
       </c>
       <c r="E11">
-        <v>7.931149003947412</v>
+        <v>39.67789339784362</v>
       </c>
       <c r="F11">
-        <v>28.34885699010794</v>
+        <v>21.22734920633512</v>
       </c>
       <c r="G11">
-        <v>2.120075948580491</v>
+        <v>2.011067233912696</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.223322708367217</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>12.85413297610675</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.503359976590081</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.0463076014072</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.05241843057583</v>
+        <v>14.87826780171814</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.41906329059369</v>
+        <v>32.67171679903262</v>
       </c>
       <c r="C12">
-        <v>7.607462335864752</v>
+        <v>23.7843128832263</v>
       </c>
       <c r="D12">
-        <v>5.448835592531358</v>
+        <v>4.262459450767984</v>
       </c>
       <c r="E12">
-        <v>7.932788942257346</v>
+        <v>40.26726686840232</v>
       </c>
       <c r="F12">
-        <v>28.40173028489353</v>
+        <v>21.54455073492708</v>
       </c>
       <c r="G12">
-        <v>2.118674548441599</v>
+        <v>2.008954605754061</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.209244009580895</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>13.00299972152447</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.525610404759485</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.12871934420608</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.05614884828696</v>
+        <v>15.11967569243916</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.37422141406207</v>
+        <v>32.58338413468093</v>
       </c>
       <c r="C13">
-        <v>7.605334253677077</v>
+        <v>23.72325271567976</v>
       </c>
       <c r="D13">
-        <v>5.440100168868132</v>
+        <v>4.2555049839369</v>
       </c>
       <c r="E13">
-        <v>7.932414919337935</v>
+        <v>40.14059250483037</v>
       </c>
       <c r="F13">
-        <v>28.3901905794339</v>
+        <v>21.47624739385646</v>
       </c>
       <c r="G13">
-        <v>2.118975861509221</v>
+        <v>2.009409481375923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.212270016512728</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>12.9710701219792</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.520809452966706</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.11099434040151</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.05522825696296</v>
+        <v>15.06767213539621</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.22723555106283</v>
+        <v>32.29397023183071</v>
       </c>
       <c r="C14">
-        <v>7.598407203582466</v>
+        <v>23.52322896401708</v>
       </c>
       <c r="D14">
-        <v>5.411563583085981</v>
+        <v>4.23277243299895</v>
       </c>
       <c r="E14">
-        <v>7.931274551937788</v>
+        <v>39.72649888003885</v>
       </c>
       <c r="F14">
-        <v>28.35313836128189</v>
+        <v>21.25345106127962</v>
       </c>
       <c r="G14">
-        <v>2.119960426563815</v>
+        <v>2.010893369838846</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.222161692883486</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>12.86643962057192</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.50518649857008</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.05309832722242</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.05267272271105</v>
+        <v>14.89812336330238</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.13662770411618</v>
+        <v>32.11566134438054</v>
       </c>
       <c r="C15">
-        <v>7.594174192751645</v>
+        <v>23.4000205008293</v>
       </c>
       <c r="D15">
-        <v>5.394047371794543</v>
+        <v>4.218807784540204</v>
       </c>
       <c r="E15">
-        <v>7.93063684638083</v>
+        <v>39.4720855897196</v>
       </c>
       <c r="F15">
-        <v>28.33088733110048</v>
+        <v>21.11694501275388</v>
       </c>
       <c r="G15">
-        <v>2.120564988151269</v>
+        <v>2.011802686326441</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.228238551823821</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>12.8019650479042</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.495643268542207</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.0175664874164</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.05144825596016</v>
+        <v>14.79430259681137</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.61540430323757</v>
+        <v>31.07785302841312</v>
       </c>
       <c r="C16">
-        <v>7.570067907948527</v>
+        <v>22.68334771287208</v>
       </c>
       <c r="D16">
-        <v>5.293128185124232</v>
+        <v>4.138167417121538</v>
       </c>
       <c r="E16">
-        <v>7.927905641149071</v>
+        <v>38.00175647449707</v>
       </c>
       <c r="F16">
-        <v>28.21010030204425</v>
+        <v>20.33401832548837</v>
       </c>
       <c r="G16">
-        <v>2.124052826921737</v>
+        <v>2.01702176164178</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.26334079046927</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>12.42656990781801</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.441364339154894</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.81293550788857</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.04955781562658</v>
+        <v>14.32663367291853</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.31028140819669</v>
+        <v>30.42677885381245</v>
       </c>
       <c r="C17">
-        <v>7.555412494975219</v>
+        <v>22.23415244515487</v>
       </c>
       <c r="D17">
-        <v>5.230760022041896</v>
+        <v>4.088153425241781</v>
       </c>
       <c r="E17">
-        <v>7.927044544951971</v>
+        <v>37.08807866683508</v>
       </c>
       <c r="F17">
-        <v>28.14190457650245</v>
+        <v>19.93861965021826</v>
       </c>
       <c r="G17">
-        <v>2.126213913412005</v>
+        <v>2.020232994310831</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.285126913252026</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>12.19098679434097</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.408438642088031</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.68654671123971</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.05286669548157</v>
+        <v>14.11944004746706</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.13249290972158</v>
+        <v>30.046947438029</v>
       </c>
       <c r="C18">
-        <v>7.547031185855232</v>
+        <v>21.97225679478444</v>
       </c>
       <c r="D18">
-        <v>5.194729783384808</v>
+        <v>4.059189256481922</v>
       </c>
       <c r="E18">
-        <v>7.926844855493631</v>
+        <v>36.55802883949858</v>
       </c>
       <c r="F18">
-        <v>28.10481065903839</v>
+        <v>19.71922768052412</v>
       </c>
       <c r="G18">
-        <v>2.127465007418551</v>
+        <v>2.022084344121928</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.297751811955451</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>12.05353810442406</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.389640517507623</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.61355762334285</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.05637046790722</v>
+        <v>14.00341954567534</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.07190446083181</v>
+        <v>29.91741909144875</v>
       </c>
       <c r="C19">
-        <v>7.544201608234251</v>
+        <v>21.88297495701926</v>
       </c>
       <c r="D19">
-        <v>5.182504505493459</v>
+        <v>4.049348848841772</v>
       </c>
       <c r="E19">
-        <v>7.926827663041062</v>
+        <v>36.37776445352535</v>
       </c>
       <c r="F19">
-        <v>28.09261347515426</v>
+        <v>19.64525149608282</v>
       </c>
       <c r="G19">
-        <v>2.127890017510125</v>
+        <v>2.022712000138848</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.302042684737125</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>12.00666560389333</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.383300094780312</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.58879636484867</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.05782777613786</v>
+        <v>13.96467469230429</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.3429994747546</v>
+        <v>30.49663940566342</v>
       </c>
       <c r="C20">
-        <v>7.556967593775968</v>
+        <v>22.28233491534761</v>
       </c>
       <c r="D20">
-        <v>5.237415785253608</v>
+        <v>4.093497996693085</v>
       </c>
       <c r="E20">
-        <v>7.927105534555859</v>
+        <v>37.1858046053578</v>
       </c>
       <c r="F20">
-        <v>28.14894274908984</v>
+        <v>19.97936938415224</v>
       </c>
       <c r="G20">
-        <v>2.125983029358586</v>
+        <v>2.019890722975315</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.28279803747607</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>12.21626651576494</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.411929229064333</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.70003187459525</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.05234787220845</v>
+        <v>14.1411691038638</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.27052854919801</v>
+        <v>32.37919336988499</v>
       </c>
       <c r="C21">
-        <v>7.600439755668289</v>
+        <v>23.58212402688103</v>
       </c>
       <c r="D21">
-        <v>5.419953175686739</v>
+        <v>4.239457939530541</v>
       </c>
       <c r="E21">
-        <v>7.93159681338641</v>
+        <v>39.84828698316163</v>
       </c>
       <c r="F21">
-        <v>28.36392864645403</v>
+        <v>21.3188991544826</v>
       </c>
       <c r="G21">
-        <v>2.119670927369301</v>
+        <v>2.010457439416305</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.219252541451101</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>12.89725241793516</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.509769877946421</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.07011824025586</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.05335207162037</v>
+        <v>14.94791686169386</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.8710320847345</v>
+        <v>33.56309975540136</v>
       </c>
       <c r="C22">
-        <v>7.629297067412548</v>
+        <v>24.40074205320526</v>
       </c>
       <c r="D22">
-        <v>5.537635282531232</v>
+        <v>4.333052850282511</v>
       </c>
       <c r="E22">
-        <v>7.937243497870392</v>
+        <v>41.55330773732182</v>
       </c>
       <c r="F22">
-        <v>28.52422603188667</v>
+        <v>22.24171177571109</v>
       </c>
       <c r="G22">
-        <v>2.115612776684529</v>
+        <v>2.004312106826866</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.178528013881253</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>13.32505766989175</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.574898487935782</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.30896232176812</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.06915244323005</v>
+        <v>15.65111499022666</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.55287272393679</v>
+        <v>32.93541530105217</v>
       </c>
       <c r="C23">
-        <v>7.613853681379504</v>
+        <v>23.96662339225427</v>
       </c>
       <c r="D23">
-        <v>5.474983575430826</v>
+        <v>4.283265111233931</v>
       </c>
       <c r="E23">
-        <v>7.933977788147538</v>
+        <v>40.64623846627671</v>
       </c>
       <c r="F23">
-        <v>28.43682224212857</v>
+        <v>21.74929727521154</v>
       </c>
       <c r="G23">
-        <v>2.117772788038852</v>
+        <v>2.007591146489613</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.200191278571167</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>13.09830397105005</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.54003270551166</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.18178242576466</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.05929009238936</v>
+        <v>15.27563020456801</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.32821501466722</v>
+        <v>30.46507265713345</v>
       </c>
       <c r="C24">
-        <v>7.556264395860976</v>
+        <v>22.26056298690717</v>
       </c>
       <c r="D24">
-        <v>5.234407254069174</v>
+        <v>4.091082370915124</v>
       </c>
       <c r="E24">
-        <v>7.927077042028572</v>
+        <v>37.14163760331674</v>
       </c>
       <c r="F24">
-        <v>28.14575421981062</v>
+        <v>19.96094120223439</v>
       </c>
       <c r="G24">
-        <v>2.126087385022709</v>
+        <v>2.020045447546533</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.283850611116501</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>12.20484381152248</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.410350725042985</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.69393624436964</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.05257745384901</v>
+        <v>14.13133575723807</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.9899402214503</v>
+        <v>27.59528256260786</v>
       </c>
       <c r="C25">
-        <v>7.495976094099806</v>
+        <v>20.28516814104458</v>
       </c>
       <c r="D25">
-        <v>4.969038635656193</v>
+        <v>3.876297461711919</v>
       </c>
       <c r="E25">
-        <v>7.930889114392094</v>
+        <v>33.1860734708765</v>
       </c>
       <c r="F25">
-        <v>27.91272210130063</v>
+        <v>18.39326957451287</v>
       </c>
       <c r="G25">
-        <v>2.135368030410539</v>
+        <v>2.033653362898404</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.377705625163232</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>11.16665172540555</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.275851592502518</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.15680851747719</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.10602966638933</v>
+        <v>13.34113048339287</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,37 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.29996711258983</v>
+        <v>24.89789934150223</v>
       </c>
       <c r="C2">
-        <v>18.71228480845788</v>
+        <v>18.25301277263919</v>
       </c>
       <c r="D2">
-        <v>3.712146929608842</v>
+        <v>4.054982730462291</v>
       </c>
       <c r="E2">
-        <v>30.09909619486762</v>
+        <v>29.63483041703122</v>
       </c>
       <c r="F2">
-        <v>17.2999510047735</v>
+        <v>18.13056958308222</v>
       </c>
       <c r="G2">
-        <v>2.043908991758983</v>
+        <v>2.060654926766087</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>3.416461098028841</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +463,39 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.85740437499542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.93177726867801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.62815818503517</v>
+        <v>23.26383590219017</v>
       </c>
       <c r="C3">
-        <v>17.57199810504744</v>
+        <v>17.1409390618791</v>
       </c>
       <c r="D3">
-        <v>3.59749845654561</v>
+        <v>3.927562455213644</v>
       </c>
       <c r="E3">
-        <v>27.88810281571637</v>
+        <v>27.71605081910991</v>
       </c>
       <c r="F3">
-        <v>16.59918913251503</v>
+        <v>17.49729497592208</v>
       </c>
       <c r="G3">
-        <v>2.051043767845687</v>
+        <v>2.066272940429423</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>3.139479544576587</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +513,39 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.58751217609845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.6834973561419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54360327761603</v>
+        <v>22.20182512873893</v>
       </c>
       <c r="C4">
-        <v>16.83526365874923</v>
+        <v>16.42130942104709</v>
       </c>
       <c r="D4">
-        <v>3.525577805703337</v>
+        <v>3.846509554043123</v>
       </c>
       <c r="E4">
-        <v>26.46895975988461</v>
+        <v>26.47378002708209</v>
       </c>
       <c r="F4">
-        <v>16.18963647903525</v>
+        <v>17.11988626078928</v>
       </c>
       <c r="G4">
-        <v>2.055526369339699</v>
+        <v>2.069814707263204</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.964060937160555</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +563,39 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.44897348634379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.54704538661909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08694938015424</v>
+        <v>21.75423156196883</v>
       </c>
       <c r="C5">
-        <v>16.52587764114491</v>
+        <v>16.11886727120157</v>
       </c>
       <c r="D5">
-        <v>3.495912843721082</v>
+        <v>3.812799646780699</v>
       </c>
       <c r="E5">
-        <v>25.87476459299186</v>
+        <v>25.95137399880545</v>
       </c>
       <c r="F5">
-        <v>16.02808891136405</v>
+        <v>16.96911306271626</v>
       </c>
       <c r="G5">
-        <v>2.057380137012188</v>
+        <v>2.071281952138181</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.891197615986665</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +613,39 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.39910515610754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.49535625111767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01023280990493</v>
+        <v>21.67901269155977</v>
       </c>
       <c r="C6">
-        <v>16.47395282490028</v>
+        <v>16.0680946933409</v>
       </c>
       <c r="D6">
-        <v>3.490966312316485</v>
+        <v>3.807161944071675</v>
       </c>
       <c r="E6">
-        <v>25.77512858479972</v>
+        <v>25.86365133915934</v>
       </c>
       <c r="F6">
-        <v>16.00159092923039</v>
+        <v>16.94426426612312</v>
       </c>
       <c r="G6">
-        <v>2.057689629649815</v>
+        <v>2.071527054272306</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.879014494230377</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +663,39 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.39121446165234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.48700641639094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53750426788429</v>
+        <v>22.19584878196305</v>
       </c>
       <c r="C7">
-        <v>16.83112818660624</v>
+        <v>16.41726766669485</v>
       </c>
       <c r="D7">
-        <v>3.525179139713713</v>
+        <v>3.846057645086946</v>
       </c>
       <c r="E7">
-        <v>26.46101104974448</v>
+        <v>26.46680019416365</v>
       </c>
       <c r="F7">
-        <v>16.18743596040851</v>
+        <v>17.1178404397331</v>
       </c>
       <c r="G7">
-        <v>2.055551258425103</v>
+        <v>2.069834397130231</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.96308390270716</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +713,39 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.44827462669668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.54633258447055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.73551876822907</v>
+        <v>24.34661721556397</v>
       </c>
       <c r="C8">
-        <v>18.32672470576468</v>
+        <v>17.87724318553504</v>
       </c>
       <c r="D8">
-        <v>3.672947966651937</v>
+        <v>4.011648518784196</v>
       </c>
       <c r="E8">
-        <v>29.34927899219528</v>
+        <v>28.98651297185654</v>
       </c>
       <c r="F8">
-        <v>17.05411325291634</v>
+        <v>17.90993640170255</v>
       </c>
       <c r="G8">
-        <v>2.046348848654694</v>
+        <v>2.06257332276784</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>3.322047863456711</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +763,39 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.75856900286794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.84279295996338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.58992846810313</v>
+        <v>28.10171957369256</v>
       </c>
       <c r="C9">
-        <v>20.96886708758744</v>
+        <v>20.44645016737692</v>
       </c>
       <c r="D9">
-        <v>3.949617738405444</v>
+        <v>4.312964283975089</v>
       </c>
       <c r="E9">
-        <v>34.54416360005666</v>
+        <v>33.42183000656939</v>
       </c>
       <c r="F9">
-        <v>18.91209816875172</v>
+        <v>19.54737350172488</v>
       </c>
       <c r="G9">
-        <v>2.029038174210597</v>
+        <v>2.049030941421981</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>3.985111876078617</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +813,39 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.5917046794574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.55489348884665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.1514239417783</v>
+        <v>30.57739167837056</v>
       </c>
       <c r="C10">
-        <v>22.73412734669459</v>
+        <v>22.14797249273774</v>
       </c>
       <c r="D10">
-        <v>4.143847419069983</v>
+        <v>4.557700116769004</v>
       </c>
       <c r="E10">
-        <v>38.10541674315342</v>
+        <v>35.49942372999039</v>
       </c>
       <c r="F10">
-        <v>20.38886581392279</v>
+        <v>20.59918098157599</v>
       </c>
       <c r="G10">
-        <v>2.016655865023571</v>
+        <v>2.039718306535877</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>4.410775765986231</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +863,39 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.35070574762169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.99896247243963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.25993359089109</v>
+        <v>31.59574558622074</v>
       </c>
       <c r="C11">
-        <v>23.49970860925279</v>
+        <v>22.83519410776042</v>
       </c>
       <c r="D11">
-        <v>4.230104353320488</v>
+        <v>5.007803317783687</v>
       </c>
       <c r="E11">
-        <v>39.67789339784362</v>
+        <v>28.94211995777329</v>
       </c>
       <c r="F11">
-        <v>21.22734920633512</v>
+        <v>19.4116084638581</v>
       </c>
       <c r="G11">
-        <v>2.011067233912696</v>
+        <v>2.037651252785357</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>4.74935085956407</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +913,39 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.87826780171814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.81073806269926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.67171679903262</v>
+        <v>31.95664881240601</v>
       </c>
       <c r="C12">
-        <v>23.7843128832263</v>
+        <v>23.07453827752758</v>
       </c>
       <c r="D12">
-        <v>4.262459450767984</v>
+        <v>5.347863969271172</v>
       </c>
       <c r="E12">
-        <v>40.26726686840232</v>
+        <v>23.04101367629282</v>
       </c>
       <c r="F12">
-        <v>21.54455073492708</v>
+        <v>18.16350039559847</v>
       </c>
       <c r="G12">
-        <v>2.008954605754061</v>
+        <v>2.037583979499019</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>5.512150096706766</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +963,39 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.11967569243916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.69154346196812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.58338413468093</v>
+        <v>31.84600825943449</v>
       </c>
       <c r="C13">
-        <v>23.72325271567976</v>
+        <v>22.99079515537812</v>
       </c>
       <c r="D13">
-        <v>4.2555049839369</v>
+        <v>5.627141582212349</v>
       </c>
       <c r="E13">
-        <v>40.14059250483037</v>
+        <v>17.19932329987481</v>
       </c>
       <c r="F13">
-        <v>21.47624739385646</v>
+        <v>16.75543168490039</v>
       </c>
       <c r="G13">
-        <v>2.009409481375923</v>
+        <v>2.039051616875743</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.489369618090509</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.06767213539621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.53861850959021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.29397023183071</v>
+        <v>31.55480574437501</v>
       </c>
       <c r="C14">
-        <v>23.52322896401708</v>
+        <v>22.78566660348587</v>
       </c>
       <c r="D14">
-        <v>4.23277243299895</v>
+        <v>5.797597134779451</v>
       </c>
       <c r="E14">
-        <v>39.72649888003885</v>
+        <v>13.22921809736451</v>
       </c>
       <c r="F14">
-        <v>21.25345106127962</v>
+        <v>15.68287818672621</v>
       </c>
       <c r="G14">
-        <v>2.010893369838846</v>
+        <v>2.040741287601649</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>7.26260981664733</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1063,39 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.89812336330238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.71503463387819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.11566134438054</v>
+        <v>31.38129251788887</v>
       </c>
       <c r="C15">
-        <v>23.4000205008293</v>
+        <v>22.66504992003988</v>
       </c>
       <c r="D15">
-        <v>4.218807784540204</v>
+        <v>5.825273799766417</v>
       </c>
       <c r="E15">
-        <v>39.4720855897196</v>
+        <v>12.28220740644145</v>
       </c>
       <c r="F15">
-        <v>21.11694501275388</v>
+        <v>15.38751297992019</v>
       </c>
       <c r="G15">
-        <v>2.011802686326441</v>
+        <v>2.041516563898398</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.440115290114314</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1113,39 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.79430259681137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.51085250331039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.07785302841312</v>
+        <v>30.38855116997392</v>
       </c>
       <c r="C16">
-        <v>22.68334771287208</v>
+        <v>21.98072700982351</v>
       </c>
       <c r="D16">
-        <v>4.138167417121538</v>
+        <v>5.676611318848624</v>
       </c>
       <c r="E16">
-        <v>38.00175647449707</v>
+        <v>12.1128561499128</v>
       </c>
       <c r="F16">
-        <v>20.33401832548837</v>
+        <v>15.13385129662749</v>
       </c>
       <c r="G16">
-        <v>2.01702176164178</v>
+        <v>2.045162024807705</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>7.152628156750532</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1163,39 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.32663367291853</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.51719187915193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.42677885381245</v>
+        <v>29.7717255296767</v>
       </c>
       <c r="C17">
-        <v>22.23415244515487</v>
+        <v>21.55837638433653</v>
       </c>
       <c r="D17">
-        <v>4.088153425241781</v>
+        <v>5.46654749890296</v>
       </c>
       <c r="E17">
-        <v>37.08807866683508</v>
+        <v>14.11760469785684</v>
       </c>
       <c r="F17">
-        <v>19.93861965021826</v>
+        <v>15.53668309839994</v>
       </c>
       <c r="G17">
-        <v>2.020232994310831</v>
+        <v>2.047088132447558</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.468962159158048</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1213,39 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.11944004746706</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.96862797586405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.046947438029</v>
+        <v>29.42455603070891</v>
       </c>
       <c r="C18">
-        <v>21.97225679478444</v>
+        <v>21.32538497787987</v>
       </c>
       <c r="D18">
-        <v>4.059189256481922</v>
+        <v>5.184146049627055</v>
       </c>
       <c r="E18">
-        <v>36.55802883949858</v>
+        <v>18.57435640394323</v>
       </c>
       <c r="F18">
-        <v>19.71922768052412</v>
+        <v>16.53818868200793</v>
       </c>
       <c r="G18">
-        <v>2.022084344121928</v>
+        <v>2.047612175479546</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.459729313761628</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1263,39 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.00341954567534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.846005298716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.91741909144875</v>
+        <v>29.32904302826502</v>
       </c>
       <c r="C19">
-        <v>21.88297495701926</v>
+        <v>21.26956208387394</v>
       </c>
       <c r="D19">
-        <v>4.049348848841772</v>
+        <v>4.87199467733732</v>
       </c>
       <c r="E19">
-        <v>36.37776445352535</v>
+        <v>24.78989973588908</v>
       </c>
       <c r="F19">
-        <v>19.64525149608282</v>
+        <v>17.9288655093456</v>
       </c>
       <c r="G19">
-        <v>2.022712000138848</v>
+        <v>2.04677079658162</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>4.528639891267542</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1313,39 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.96467469230429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.00025367589964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.49663940566342</v>
+        <v>29.94551859568076</v>
       </c>
       <c r="C20">
-        <v>22.28233491534761</v>
+        <v>21.71300583584856</v>
       </c>
       <c r="D20">
-        <v>4.093497996693085</v>
+        <v>4.496327547852867</v>
       </c>
       <c r="E20">
-        <v>37.1858046053578</v>
+        <v>34.92596129223055</v>
       </c>
       <c r="F20">
-        <v>19.97936938415224</v>
+        <v>20.31058758239368</v>
       </c>
       <c r="G20">
-        <v>2.019890722975315</v>
+        <v>2.042152209980016</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>4.297821795127231</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1363,39 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.1411691038638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.86886659007179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.37919336988499</v>
+        <v>31.76864487013778</v>
       </c>
       <c r="C21">
-        <v>23.58212402688103</v>
+        <v>22.97154746301271</v>
       </c>
       <c r="D21">
-        <v>4.239457939530541</v>
+        <v>4.618726059219144</v>
       </c>
       <c r="E21">
-        <v>39.84828698316163</v>
+        <v>37.79561574836795</v>
       </c>
       <c r="F21">
-        <v>21.3188991544826</v>
+        <v>21.43184923100538</v>
       </c>
       <c r="G21">
-        <v>2.010457439416305</v>
+        <v>2.034696757944495</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>4.679217316707213</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1413,39 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.94791686169386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.48986414217357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.56309975540136</v>
+        <v>32.90832623376996</v>
       </c>
       <c r="C22">
-        <v>24.40074205320526</v>
+        <v>23.75852544307827</v>
       </c>
       <c r="D22">
-        <v>4.333052850282511</v>
+        <v>4.715552084575854</v>
       </c>
       <c r="E22">
-        <v>41.55330773732182</v>
+        <v>39.16346842533085</v>
       </c>
       <c r="F22">
-        <v>22.24171177571109</v>
+        <v>22.07066333072222</v>
       </c>
       <c r="G22">
-        <v>2.004312106826866</v>
+        <v>2.03000899010797</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>4.904705695923207</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1463,39 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.65111499022666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.82816972328746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.93541530105217</v>
+        <v>32.30447887015833</v>
       </c>
       <c r="C23">
-        <v>23.96662339225427</v>
+        <v>23.34145011795574</v>
       </c>
       <c r="D23">
-        <v>4.283265111233931</v>
+        <v>4.66415721179145</v>
       </c>
       <c r="E23">
-        <v>40.64623846627671</v>
+        <v>38.43822589831207</v>
       </c>
       <c r="F23">
-        <v>21.74929727521154</v>
+        <v>21.72916903209495</v>
       </c>
       <c r="G23">
-        <v>2.007591146489613</v>
+        <v>2.032506784222057</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>4.784645236438124</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1513,39 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.27563020456801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.64612935729463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.46507265713345</v>
+        <v>29.91974643493214</v>
       </c>
       <c r="C24">
-        <v>22.26056298690717</v>
+        <v>21.6968387252622</v>
       </c>
       <c r="D24">
-        <v>4.091082370915124</v>
+        <v>4.463354208521735</v>
       </c>
       <c r="E24">
-        <v>37.14163760331674</v>
+        <v>35.58510515996978</v>
       </c>
       <c r="F24">
-        <v>19.96094120223439</v>
+        <v>20.44822497922178</v>
       </c>
       <c r="G24">
-        <v>2.020045447546533</v>
+        <v>2.042064890147257</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>4.323337309462734</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1563,39 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.13133575723807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.98899468366936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.59528256260786</v>
+        <v>27.1349020761604</v>
       </c>
       <c r="C25">
-        <v>20.28516814104458</v>
+        <v>19.78301228928547</v>
       </c>
       <c r="D25">
-        <v>3.876297461711919</v>
+        <v>4.23409127005464</v>
       </c>
       <c r="E25">
-        <v>33.1860734708765</v>
+        <v>32.27560715676275</v>
       </c>
       <c r="F25">
-        <v>18.39326957451287</v>
+        <v>19.0962666902096</v>
       </c>
       <c r="G25">
-        <v>2.033653362898404</v>
+        <v>2.052625218022758</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>3.80987537854725</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1613,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.34113048339287</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.34776845306689</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_line/loading_percent.xlsx
@@ -427,49 +427,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.89789934150223</v>
+        <v>12.88642201601955</v>
       </c>
       <c r="C2">
-        <v>18.25301277263919</v>
+        <v>7.455136495916302</v>
       </c>
       <c r="D2">
-        <v>4.054982730462291</v>
+        <v>5.84790825301357</v>
       </c>
       <c r="E2">
-        <v>29.63483041703122</v>
+        <v>8.055392793755921</v>
       </c>
       <c r="F2">
-        <v>18.13056958308222</v>
+        <v>21.81741140553573</v>
       </c>
       <c r="G2">
-        <v>2.060654926766087</v>
+        <v>24.35434503955598</v>
       </c>
       <c r="H2">
-        <v>3.416461098028841</v>
+        <v>3.169516202621016</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.890500041033977</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.21876069848249</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.12667909075083</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.0336557021244</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.538940884299427</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>9.506990618882211</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.93177726867801</v>
+        <v>16.17272106372313</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -477,49 +477,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.26383590219017</v>
+        <v>12.05796742166353</v>
       </c>
       <c r="C3">
-        <v>17.1409390618791</v>
+        <v>7.353586052421175</v>
       </c>
       <c r="D3">
-        <v>3.927562455213644</v>
+        <v>5.66359862535137</v>
       </c>
       <c r="E3">
-        <v>27.71605081910991</v>
+        <v>7.97333425270638</v>
       </c>
       <c r="F3">
-        <v>17.49729497592208</v>
+        <v>21.78668688597681</v>
       </c>
       <c r="G3">
-        <v>2.066272940429423</v>
+        <v>24.37736310622932</v>
       </c>
       <c r="H3">
-        <v>3.139479544576587</v>
+        <v>3.355092265778216</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.965107148591061</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.38145747784821</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.109767403269418</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.47250616378936</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.398078789809968</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>9.137112810434719</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.6834973561419</v>
+        <v>16.27003143766339</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -527,49 +527,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.20182512873893</v>
+        <v>11.5187108601544</v>
       </c>
       <c r="C4">
-        <v>16.42130942104709</v>
+        <v>7.290332861899397</v>
       </c>
       <c r="D4">
-        <v>3.846509554043123</v>
+        <v>5.548170014704222</v>
       </c>
       <c r="E4">
-        <v>26.47378002708209</v>
+        <v>7.922530872788733</v>
       </c>
       <c r="F4">
-        <v>17.11988626078928</v>
+        <v>21.7788567733062</v>
       </c>
       <c r="G4">
-        <v>2.069814707263204</v>
+        <v>24.40857335170032</v>
       </c>
       <c r="H4">
-        <v>2.964060937160555</v>
+        <v>3.473178457551251</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.01446477818126</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.4879482779153</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.098939741648478</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.11128464084416</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.309985897493401</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>8.902870217694762</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.54704538661909</v>
+        <v>16.33771216974506</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -577,49 +577,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.75423156196883</v>
+        <v>11.29126172997034</v>
       </c>
       <c r="C5">
-        <v>16.11886727120157</v>
+        <v>7.264343426424938</v>
       </c>
       <c r="D5">
-        <v>3.812799646780699</v>
+        <v>5.500624592482533</v>
       </c>
       <c r="E5">
-        <v>25.95137399880545</v>
+        <v>7.901728405032822</v>
       </c>
       <c r="F5">
-        <v>16.96911306271626</v>
+        <v>21.77837987940945</v>
       </c>
       <c r="G5">
-        <v>2.071281952138181</v>
+        <v>24.42544789995031</v>
       </c>
       <c r="H5">
-        <v>2.891197615986665</v>
+        <v>3.522353681108243</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.03545442791759</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.53296905802736</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.094414159501965</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.959985371508854</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.273714809148976</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>8.805735433860862</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.49535625111767</v>
+        <v>16.36723238359976</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -627,49 +627,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.67901269155977</v>
+        <v>11.25302895123394</v>
       </c>
       <c r="C6">
-        <v>16.0680946933409</v>
+        <v>7.260015417230497</v>
       </c>
       <c r="D6">
-        <v>3.807161944071675</v>
+        <v>5.492700960629893</v>
       </c>
       <c r="E6">
-        <v>25.86365133915934</v>
+        <v>7.898268318695497</v>
       </c>
       <c r="F6">
-        <v>16.94426426612312</v>
+        <v>21.77846278826405</v>
       </c>
       <c r="G6">
-        <v>2.071527054272306</v>
+        <v>24.42849686038995</v>
       </c>
       <c r="H6">
-        <v>2.879014494230377</v>
+        <v>3.530583221263883</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.03899219256968</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.54054193365553</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.093655805145424</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.934617833298805</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.267670445833887</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>8.789508513881298</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.48700641639094</v>
+        <v>16.37224978452431</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -677,49 +677,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.19584878196305</v>
+        <v>11.51567457520816</v>
       </c>
       <c r="C7">
-        <v>16.41726766669485</v>
+        <v>7.289983204865393</v>
       </c>
       <c r="D7">
-        <v>3.846057645086946</v>
+        <v>5.547530769911319</v>
       </c>
       <c r="E7">
-        <v>26.46680019416365</v>
+        <v>7.922250719449277</v>
       </c>
       <c r="F7">
-        <v>17.1178404397331</v>
+        <v>21.77883943496214</v>
       </c>
       <c r="G7">
-        <v>2.069834397130231</v>
+        <v>24.40878428323982</v>
       </c>
       <c r="H7">
-        <v>2.96308390270716</v>
+        <v>3.47383736708359</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.01474432586183</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.48854890702415</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.098879168611725</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.10926062243267</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.309498199748818</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>8.9015668596435</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.54633258447055</v>
+        <v>16.33810250658039</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -727,49 +727,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.34661721556397</v>
+        <v>12.60711176731777</v>
       </c>
       <c r="C8">
-        <v>17.87724318553504</v>
+        <v>7.420316670805793</v>
       </c>
       <c r="D8">
-        <v>4.011648518784196</v>
+        <v>5.78486302797918</v>
       </c>
       <c r="E8">
-        <v>28.98651297185654</v>
+        <v>8.027189383052139</v>
       </c>
       <c r="F8">
-        <v>17.90993640170255</v>
+        <v>21.8044913194532</v>
       </c>
       <c r="G8">
-        <v>2.06257332276784</v>
+        <v>24.3586548228694</v>
       </c>
       <c r="H8">
-        <v>3.322047863456711</v>
+        <v>3.232650963910713</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.915477991292311</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.2734692013424</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.120939063961356</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.8436825767397</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.49072219056109</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>9.381002836335254</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.84279295996338</v>
+        <v>16.20459394385326</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -777,49 +777,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.10171957369256</v>
+        <v>14.50539871333448</v>
       </c>
       <c r="C9">
-        <v>20.44645016737692</v>
+        <v>7.668200234360989</v>
       </c>
       <c r="D9">
-        <v>4.312964283975089</v>
+        <v>6.229883434209033</v>
       </c>
       <c r="E9">
-        <v>33.42183000656939</v>
+        <v>8.229408540126984</v>
       </c>
       <c r="F9">
-        <v>19.54737350172488</v>
+        <v>21.94496895938663</v>
       </c>
       <c r="G9">
-        <v>2.049030941421981</v>
+        <v>24.40191424225175</v>
       </c>
       <c r="H9">
-        <v>3.985111876078617</v>
+        <v>2.791952260623242</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.749749382028321</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.9056277984497</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.160752739517113</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.14835829686228</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.832124572671777</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>10.26017161642629</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.55489348884665</v>
+        <v>16.00826477732293</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -827,49 +827,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.57739167837056</v>
+        <v>15.74887684817451</v>
       </c>
       <c r="C10">
-        <v>22.14797249273774</v>
+        <v>7.87041701724948</v>
       </c>
       <c r="D10">
-        <v>4.557700116769004</v>
+        <v>6.506878693688341</v>
       </c>
       <c r="E10">
-        <v>35.49942372999039</v>
+        <v>8.311985075697752</v>
       </c>
       <c r="F10">
-        <v>20.59918098157599</v>
+        <v>21.99896234462685</v>
       </c>
       <c r="G10">
-        <v>2.039718306535877</v>
+        <v>24.38243183610026</v>
       </c>
       <c r="H10">
-        <v>4.410775765986231</v>
+        <v>2.512418017809479</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.623130567266237</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.61806701404821</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.177624413677182</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.03300134376089</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.014320917091007</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>10.81793557937884</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.99896247243963</v>
+        <v>15.84776141932439</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -877,49 +877,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.59574558622074</v>
+        <v>16.24270992669098</v>
       </c>
       <c r="C11">
-        <v>22.83519410776042</v>
+        <v>8.198475408612715</v>
       </c>
       <c r="D11">
-        <v>5.007803317783687</v>
+        <v>6.330535247623338</v>
       </c>
       <c r="E11">
-        <v>28.94211995777329</v>
+        <v>7.854203097707324</v>
       </c>
       <c r="F11">
-        <v>19.4116084638581</v>
+        <v>21.1063267535412</v>
       </c>
       <c r="G11">
-        <v>2.037651252785357</v>
+        <v>23.13582854537766</v>
       </c>
       <c r="H11">
-        <v>4.74935085956407</v>
+        <v>3.288408930258601</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.36588048289943</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.04901745085759</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.135385824989662</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.52121198299701</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.60523135305736</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>10.66414282483421</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.81073806269926</v>
+        <v>15.26845281796648</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -927,49 +927,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.95664881240601</v>
+        <v>16.40761172743427</v>
       </c>
       <c r="C12">
-        <v>23.07453827752758</v>
+        <v>8.454651120987815</v>
       </c>
       <c r="D12">
-        <v>5.347863969271172</v>
+        <v>6.120667890899851</v>
       </c>
       <c r="E12">
-        <v>23.04101367629282</v>
+        <v>7.531085538087605</v>
       </c>
       <c r="F12">
-        <v>18.16350039559847</v>
+        <v>20.33524076207213</v>
       </c>
       <c r="G12">
-        <v>2.037583979499019</v>
+        <v>22.07818070022144</v>
       </c>
       <c r="H12">
-        <v>5.512150096706766</v>
+        <v>4.517610197764254</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.175242269671301</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.64084387274679</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.150717340358745</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.75597636215436</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.242656315843812</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>10.41226717719816</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.69154346196812</v>
+        <v>14.81222592433976</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -977,49 +977,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.84600825943449</v>
+        <v>16.33502171258178</v>
       </c>
       <c r="C13">
-        <v>22.99079515537812</v>
+        <v>8.668797695057329</v>
       </c>
       <c r="D13">
-        <v>5.627141582212349</v>
+        <v>5.868638257342224</v>
       </c>
       <c r="E13">
-        <v>17.19932329987481</v>
+        <v>7.300715837785318</v>
       </c>
       <c r="F13">
-        <v>16.75543168490039</v>
+        <v>19.61079731905246</v>
       </c>
       <c r="G13">
-        <v>2.039051616875743</v>
+        <v>21.10222161764504</v>
       </c>
       <c r="H13">
-        <v>6.489369618090509</v>
+        <v>5.860373024053471</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.025023814739749</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.33536720856674</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.208091629009926</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.81587234478869</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.895452399110159</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>10.06435192865608</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.53861850959021</v>
+        <v>14.42493158062705</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1027,49 +1027,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.55480574437501</v>
+        <v>16.17581563451466</v>
       </c>
       <c r="C14">
-        <v>22.78566660348587</v>
+        <v>8.801245880257564</v>
       </c>
       <c r="D14">
-        <v>5.797597134779451</v>
+        <v>5.671582488910097</v>
       </c>
       <c r="E14">
-        <v>13.22921809736451</v>
+        <v>7.198621842709289</v>
       </c>
       <c r="F14">
-        <v>15.68287818672621</v>
+        <v>19.13047403853773</v>
       </c>
       <c r="G14">
-        <v>2.040741287601649</v>
+        <v>20.46552019317295</v>
       </c>
       <c r="H14">
-        <v>7.26260981664733</v>
+        <v>6.833181685614162</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.939744708540454</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.17382274217999</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.272284959094508</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.7794939982722</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.666177579001996</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>9.773885581664858</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.71503463387819</v>
+        <v>14.18944931122963</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1077,49 +1077,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.38129251788887</v>
+        <v>16.08545190510292</v>
       </c>
       <c r="C15">
-        <v>22.66504992003988</v>
+        <v>8.821670898730131</v>
       </c>
       <c r="D15">
-        <v>5.825273799766417</v>
+        <v>5.614740164715818</v>
       </c>
       <c r="E15">
-        <v>12.28220740644145</v>
+        <v>7.182300664632385</v>
       </c>
       <c r="F15">
-        <v>15.38751297992019</v>
+        <v>19.02546077156247</v>
       </c>
       <c r="G15">
-        <v>2.041516563898398</v>
+        <v>20.33114677444676</v>
       </c>
       <c r="H15">
-        <v>7.440115290114314</v>
+        <v>7.062284924291082</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.927858208784784</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.15537047955101</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.289201901463448</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.73266643936643</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.61111453797053</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>9.682788708307221</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.51085250331039</v>
+        <v>14.14769519944216</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1127,49 +1127,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.38855116997392</v>
+        <v>15.58843581053266</v>
       </c>
       <c r="C16">
-        <v>21.98072700982351</v>
+        <v>8.690559624303202</v>
       </c>
       <c r="D16">
-        <v>5.676611318848624</v>
+        <v>5.539448444786982</v>
       </c>
       <c r="E16">
-        <v>12.1128561499128</v>
+        <v>7.190256524412241</v>
       </c>
       <c r="F16">
-        <v>15.13385129662749</v>
+        <v>19.14753298492194</v>
       </c>
       <c r="G16">
-        <v>2.045162024807705</v>
+        <v>20.53602281997665</v>
       </c>
       <c r="H16">
-        <v>7.152628156750532</v>
+        <v>6.882828221037343</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.013146635179547</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.34416681099404</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.264394951102492</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.3610781435988</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.598480313390995</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>9.503827240095147</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.51719187915193</v>
+        <v>14.29717620290915</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1177,49 +1177,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.7717255296767</v>
+        <v>15.28735346654131</v>
       </c>
       <c r="C17">
-        <v>21.55837638433653</v>
+        <v>8.516979470690416</v>
       </c>
       <c r="D17">
-        <v>5.46654749890296</v>
+        <v>5.588821423007136</v>
       </c>
       <c r="E17">
-        <v>14.11760469785684</v>
+        <v>7.24152940874648</v>
       </c>
       <c r="F17">
-        <v>15.53668309839994</v>
+        <v>19.49536035168991</v>
       </c>
       <c r="G17">
-        <v>2.047088132447558</v>
+        <v>21.02874815397361</v>
       </c>
       <c r="H17">
-        <v>6.468962159158048</v>
+        <v>6.201546869084689</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.123465130242225</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.57207969869803</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.207881147603963</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.09041619579218</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.707618198382136</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>9.524887363120992</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.96862797586405</v>
+        <v>14.53539830847804</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1227,49 +1227,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.42455603070891</v>
+        <v>15.12851909853162</v>
       </c>
       <c r="C18">
-        <v>21.32538497787987</v>
+        <v>8.295915834151355</v>
       </c>
       <c r="D18">
-        <v>5.184146049627055</v>
+        <v>5.751312821994568</v>
       </c>
       <c r="E18">
-        <v>18.57435640394323</v>
+        <v>7.387714838677886</v>
       </c>
       <c r="F18">
-        <v>16.53818868200793</v>
+        <v>20.0796642591848</v>
       </c>
       <c r="G18">
-        <v>2.047612175479546</v>
+        <v>21.82920022960814</v>
       </c>
       <c r="H18">
-        <v>5.459729313761628</v>
+        <v>5.057448850302588</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.268918880627018</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.86903271481412</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.142808483558579</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.88161169862475</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.953019963776797</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>9.720299184251719</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.846005298716</v>
+        <v>14.87987789812325</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1277,49 +1277,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.32904302826502</v>
+        <v>15.09890539760583</v>
       </c>
       <c r="C19">
-        <v>21.26956208387394</v>
+        <v>8.065978644663618</v>
       </c>
       <c r="D19">
-        <v>4.87199467733732</v>
+        <v>5.991593904699641</v>
       </c>
       <c r="E19">
-        <v>24.78989973588908</v>
+        <v>7.670903476584819</v>
       </c>
       <c r="F19">
-        <v>17.9288655093456</v>
+        <v>20.82187800940392</v>
       </c>
       <c r="G19">
-        <v>2.04677079658162</v>
+        <v>22.83497156059931</v>
       </c>
       <c r="H19">
-        <v>4.528639891267542</v>
+        <v>3.770756536913738</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.435177605926215</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.21614746619084</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.112997546834091</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.74229716266533</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.314341348992514</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>10.03726708979874</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.00025367589964</v>
+        <v>15.29307711187405</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1327,49 +1327,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.94551859568076</v>
+        <v>15.43190486101992</v>
       </c>
       <c r="C20">
-        <v>21.71300583584856</v>
+        <v>7.818748892185787</v>
       </c>
       <c r="D20">
-        <v>4.496327547852867</v>
+        <v>6.433587928495908</v>
       </c>
       <c r="E20">
-        <v>34.92596129223055</v>
+        <v>8.287542240657009</v>
       </c>
       <c r="F20">
-        <v>20.31058758239368</v>
+        <v>21.97602138119019</v>
       </c>
       <c r="G20">
-        <v>2.042152209980016</v>
+        <v>24.37449802462838</v>
       </c>
       <c r="H20">
-        <v>4.297821795127231</v>
+        <v>2.58435728171052</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.654069487587275</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.68890116867091</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.172749696621118</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.80724323160733</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.96442639226799</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>10.67219506593864</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.86886659007179</v>
+        <v>15.88428640144374</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1377,49 +1377,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.76864487013778</v>
+        <v>16.34774947022484</v>
       </c>
       <c r="C21">
-        <v>22.97154746301271</v>
+        <v>7.932633673105418</v>
       </c>
       <c r="D21">
-        <v>4.618726059219144</v>
+        <v>6.694360628785177</v>
       </c>
       <c r="E21">
-        <v>37.79561574836795</v>
+        <v>8.448547274479887</v>
       </c>
       <c r="F21">
-        <v>21.43184923100538</v>
+        <v>22.20340079012612</v>
       </c>
       <c r="G21">
-        <v>2.034696757944495</v>
+        <v>24.61709101107105</v>
       </c>
       <c r="H21">
-        <v>4.679217316707213</v>
+        <v>2.337517432188833</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.599772715842892</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.56149818696416</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.201303709478143</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.43960075922246</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.191527913170767</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>11.15720655540507</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.48986414217357</v>
+        <v>15.86852923068501</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1427,49 +1427,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.90832623376996</v>
+        <v>16.9176213614923</v>
       </c>
       <c r="C22">
-        <v>23.75852544307827</v>
+        <v>8.018864047699408</v>
       </c>
       <c r="D22">
-        <v>4.715552084575854</v>
+        <v>6.843529473963731</v>
       </c>
       <c r="E22">
-        <v>39.16346842533085</v>
+        <v>8.520706171317563</v>
       </c>
       <c r="F22">
-        <v>22.07066333072222</v>
+        <v>22.30860192479733</v>
       </c>
       <c r="G22">
-        <v>2.03000899010797</v>
+        <v>24.7206832518046</v>
       </c>
       <c r="H22">
-        <v>4.904705695923207</v>
+        <v>2.191454592451704</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.556052282153733</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.45872282989603</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.214256277909478</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.84291804670975</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.307680888858757</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>11.44179324952744</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.82816972328746</v>
+        <v>15.83683659355891</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1477,49 +1477,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.30447887015833</v>
+        <v>16.61585585229543</v>
       </c>
       <c r="C23">
-        <v>23.34145011795574</v>
+        <v>7.97295006860266</v>
       </c>
       <c r="D23">
-        <v>4.66415721179145</v>
+        <v>6.76424159554289</v>
       </c>
       <c r="E23">
-        <v>38.43822589831207</v>
+        <v>8.48224359453466</v>
       </c>
       <c r="F23">
-        <v>21.72916903209495</v>
+        <v>22.25138404582456</v>
       </c>
       <c r="G23">
-        <v>2.032506784222057</v>
+        <v>24.66358094600816</v>
       </c>
       <c r="H23">
-        <v>4.784645236438124</v>
+        <v>2.269128042936149</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.579030703035709</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.51289442479567</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.207372527482005</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.62914308302493</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.245897337213123</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>11.29071598826955</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.64612935729463</v>
+        <v>15.8528981146167</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1527,49 +1527,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.91974643493214</v>
+        <v>15.42039718743658</v>
       </c>
       <c r="C24">
-        <v>21.6968387252622</v>
+        <v>7.796724903752279</v>
       </c>
       <c r="D24">
-        <v>4.463354208521735</v>
+        <v>6.456975086446952</v>
       </c>
       <c r="E24">
-        <v>35.58510515996978</v>
+        <v>8.335502162467415</v>
       </c>
       <c r="F24">
-        <v>20.44822497922178</v>
+        <v>22.0579059527586</v>
       </c>
       <c r="G24">
-        <v>2.042064890147257</v>
+        <v>24.48643294063009</v>
       </c>
       <c r="H24">
-        <v>4.323337309462734</v>
+        <v>2.569616057715775</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.673730443527925</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.7327058440358</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.180645782182176</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.78703850343832</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.007420080108692</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>10.70098018113995</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.98899468366936</v>
+        <v>15.93205812631647</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1577,49 +1577,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.1349020761604</v>
+        <v>14.01766052078926</v>
       </c>
       <c r="C25">
-        <v>19.78301228928547</v>
+        <v>7.602039253882317</v>
       </c>
       <c r="D25">
-        <v>4.23409127005464</v>
+        <v>6.111995926619318</v>
       </c>
       <c r="E25">
-        <v>32.27560715676275</v>
+        <v>8.175116368982456</v>
       </c>
       <c r="F25">
-        <v>19.0962666902096</v>
+        <v>21.89694929777616</v>
       </c>
       <c r="G25">
-        <v>2.052625218022758</v>
+        <v>24.3742085771249</v>
       </c>
       <c r="H25">
-        <v>3.80987537854725</v>
+        <v>2.907805834500212</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.791372723024759</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.99912925475326</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.150339941541167</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.81030445064713</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.741430302562411</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.02942342185252</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.34776845306689</v>
+        <v>16.05399979906381</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.88642201601955</v>
+        <v>12.90168484465776</v>
       </c>
       <c r="C2">
-        <v>7.455136495916302</v>
+        <v>7.096305598044641</v>
       </c>
       <c r="D2">
-        <v>5.84790825301357</v>
+        <v>5.906048887364107</v>
       </c>
       <c r="E2">
-        <v>8.055392793755921</v>
+        <v>7.984480320157703</v>
       </c>
       <c r="F2">
-        <v>21.81741140553573</v>
+        <v>21.21648288868271</v>
       </c>
       <c r="G2">
-        <v>24.35434503955598</v>
+        <v>23.04312799606806</v>
       </c>
       <c r="H2">
-        <v>3.169516202621016</v>
+        <v>3.023810091795279</v>
       </c>
       <c r="J2">
-        <v>9.890500041033977</v>
+        <v>9.869671833771811</v>
       </c>
       <c r="K2">
-        <v>16.21876069848249</v>
+        <v>15.56481322852332</v>
       </c>
       <c r="L2">
-        <v>6.12667909075083</v>
+        <v>12.45544200065675</v>
       </c>
       <c r="M2">
-        <v>11.0336557021244</v>
+        <v>10.52461535336079</v>
       </c>
       <c r="N2">
-        <v>6.538940884299427</v>
+        <v>6.063231100373029</v>
       </c>
       <c r="O2">
-        <v>9.506990618882211</v>
+        <v>11.12430723166685</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.754924032711897</v>
       </c>
       <c r="Q2">
-        <v>16.17272106372313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.508120050753387</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.69529253242758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.05796742166353</v>
+        <v>12.10022915560968</v>
       </c>
       <c r="C3">
-        <v>7.353586052421175</v>
+        <v>6.912479629814218</v>
       </c>
       <c r="D3">
-        <v>5.66359862535137</v>
+        <v>5.721541156425089</v>
       </c>
       <c r="E3">
-        <v>7.97333425270638</v>
+        <v>7.912136331721281</v>
       </c>
       <c r="F3">
-        <v>21.78668688597681</v>
+        <v>21.211973783055</v>
       </c>
       <c r="G3">
-        <v>24.37736310622932</v>
+        <v>23.16012635376867</v>
       </c>
       <c r="H3">
-        <v>3.355092265778216</v>
+        <v>3.19603024459045</v>
       </c>
       <c r="J3">
-        <v>9.965107148591061</v>
+        <v>9.913330958959014</v>
       </c>
       <c r="K3">
-        <v>16.38145747784821</v>
+        <v>15.73470749695877</v>
       </c>
       <c r="L3">
-        <v>6.109767403269418</v>
+        <v>12.6278782132428</v>
       </c>
       <c r="M3">
-        <v>10.47250616378936</v>
+        <v>10.64628715664698</v>
       </c>
       <c r="N3">
-        <v>6.398078789809968</v>
+        <v>6.047434599773894</v>
       </c>
       <c r="O3">
-        <v>9.137112810434719</v>
+        <v>10.55322024391508</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.615422499326759</v>
       </c>
       <c r="Q3">
-        <v>16.27003143766339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.131775919961903</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.80574209500196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.5187108601544</v>
+        <v>11.57893219284616</v>
       </c>
       <c r="C4">
-        <v>7.290332861899397</v>
+        <v>6.797832303320832</v>
       </c>
       <c r="D4">
-        <v>5.548170014704222</v>
+        <v>5.606184982707234</v>
       </c>
       <c r="E4">
-        <v>7.922530872788733</v>
+        <v>7.867346516775285</v>
       </c>
       <c r="F4">
-        <v>21.7788567733062</v>
+        <v>21.21878545847829</v>
       </c>
       <c r="G4">
-        <v>24.40857335170032</v>
+        <v>23.24948565323928</v>
       </c>
       <c r="H4">
-        <v>3.473178457551251</v>
+        <v>3.305645688066037</v>
       </c>
       <c r="J4">
-        <v>10.01446477818126</v>
+        <v>9.942157583494057</v>
       </c>
       <c r="K4">
-        <v>16.4879482779153</v>
+        <v>15.84435651278483</v>
       </c>
       <c r="L4">
-        <v>6.098939741648478</v>
+        <v>12.73858731181721</v>
       </c>
       <c r="M4">
-        <v>10.11128464084416</v>
+        <v>10.73797410273154</v>
       </c>
       <c r="N4">
-        <v>6.309985897493401</v>
+        <v>6.037310066525885</v>
       </c>
       <c r="O4">
-        <v>8.902870217694762</v>
+        <v>10.1857497742544</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.528640840427315</v>
       </c>
       <c r="Q4">
-        <v>16.33771216974506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.893164750440521</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.8803222977654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.29126172997034</v>
+        <v>11.35916804345704</v>
       </c>
       <c r="C5">
-        <v>7.264343426424938</v>
+        <v>6.750720667489301</v>
       </c>
       <c r="D5">
-        <v>5.500624592482533</v>
+        <v>5.558721242357166</v>
       </c>
       <c r="E5">
-        <v>7.901728405032822</v>
+        <v>7.849005257846824</v>
       </c>
       <c r="F5">
-        <v>21.77837987940945</v>
+        <v>21.22391076931926</v>
       </c>
       <c r="G5">
-        <v>24.42544789995031</v>
+        <v>23.29013086226626</v>
       </c>
       <c r="H5">
-        <v>3.522353681108243</v>
+        <v>3.351299465052628</v>
       </c>
       <c r="J5">
-        <v>10.03545442791759</v>
+        <v>9.954405997279153</v>
       </c>
       <c r="K5">
-        <v>16.53296905802736</v>
+        <v>15.89035962606176</v>
       </c>
       <c r="L5">
-        <v>6.094414159501965</v>
+        <v>12.7849292137479</v>
       </c>
       <c r="M5">
-        <v>9.959985371508854</v>
+        <v>10.77949894411337</v>
       </c>
       <c r="N5">
-        <v>6.273714809148976</v>
+        <v>6.033075678930716</v>
       </c>
       <c r="O5">
-        <v>8.805735433860862</v>
+        <v>10.03187828083663</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.493027449109993</v>
       </c>
       <c r="Q5">
-        <v>16.36723238359976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.794151778179772</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.91236913178695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.25302895123394</v>
+        <v>11.32223408685395</v>
       </c>
       <c r="C6">
-        <v>7.260015417230497</v>
+        <v>6.742875818947712</v>
       </c>
       <c r="D6">
-        <v>5.492700960629893</v>
+        <v>5.550814422899792</v>
       </c>
       <c r="E6">
-        <v>7.898268318695497</v>
+        <v>7.845954447207651</v>
       </c>
       <c r="F6">
-        <v>21.77846278826405</v>
+        <v>21.22490197034364</v>
       </c>
       <c r="G6">
-        <v>24.42849686038995</v>
+        <v>23.29713041166676</v>
       </c>
       <c r="H6">
-        <v>3.530583221263883</v>
+        <v>3.358940025126049</v>
       </c>
       <c r="J6">
-        <v>10.03899219256968</v>
+        <v>9.956469930319763</v>
       </c>
       <c r="K6">
-        <v>16.54054193365553</v>
+        <v>15.89807756961343</v>
       </c>
       <c r="L6">
-        <v>6.093655805145424</v>
+        <v>12.79269870694662</v>
       </c>
       <c r="M6">
-        <v>9.934617833298805</v>
+        <v>10.78664224379879</v>
       </c>
       <c r="N6">
-        <v>6.267670445833887</v>
+        <v>6.032365959973907</v>
       </c>
       <c r="O6">
-        <v>8.789508513881298</v>
+        <v>10.0060824414979</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.487099851193054</v>
       </c>
       <c r="Q6">
-        <v>16.37224978452431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.77760714664756</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.91778912276086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.51567457520816</v>
+        <v>11.57666262231832</v>
       </c>
       <c r="C7">
-        <v>7.289983204865393</v>
+        <v>6.794507420398801</v>
       </c>
       <c r="D7">
-        <v>5.547530769911319</v>
+        <v>5.608580716167301</v>
       </c>
       <c r="E7">
-        <v>7.922250719449277</v>
+        <v>7.867513950809542</v>
       </c>
       <c r="F7">
-        <v>21.77883943496214</v>
+        <v>21.20842215847814</v>
       </c>
       <c r="G7">
-        <v>24.40878428323982</v>
+        <v>23.30835474507717</v>
       </c>
       <c r="H7">
-        <v>3.47383736708359</v>
+        <v>3.306770957004183</v>
       </c>
       <c r="J7">
-        <v>10.01474432586183</v>
+        <v>9.914967852627878</v>
       </c>
       <c r="K7">
-        <v>16.48854890702415</v>
+        <v>15.83991495128769</v>
       </c>
       <c r="L7">
-        <v>6.098879168611725</v>
+        <v>12.73408222057174</v>
       </c>
       <c r="M7">
-        <v>10.10926062243267</v>
+        <v>10.73599532755919</v>
       </c>
       <c r="N7">
-        <v>6.309498199748818</v>
+        <v>6.036948191465593</v>
       </c>
       <c r="O7">
-        <v>8.9015668596435</v>
+        <v>10.18252364143189</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.527992415133113</v>
       </c>
       <c r="Q7">
-        <v>16.33810250658039</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.892208320197765</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.87328151744133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.60711176731777</v>
+        <v>12.63347123065346</v>
       </c>
       <c r="C8">
-        <v>7.420316670805793</v>
+        <v>7.024525710283788</v>
       </c>
       <c r="D8">
-        <v>5.78486302797918</v>
+        <v>5.852652707262951</v>
       </c>
       <c r="E8">
-        <v>8.027189383052139</v>
+        <v>7.961066335262444</v>
       </c>
       <c r="F8">
-        <v>21.8044913194532</v>
+        <v>21.17865988460679</v>
       </c>
       <c r="G8">
-        <v>24.3586548228694</v>
+        <v>23.27542106358671</v>
       </c>
       <c r="H8">
-        <v>3.232650963910713</v>
+        <v>3.0839681518062</v>
       </c>
       <c r="J8">
-        <v>9.915477991292311</v>
+        <v>9.795482295981275</v>
       </c>
       <c r="K8">
-        <v>16.2734692013424</v>
+        <v>15.60573042799744</v>
       </c>
       <c r="L8">
-        <v>6.120939063961356</v>
+        <v>12.49861019833046</v>
       </c>
       <c r="M8">
-        <v>10.8436825767397</v>
+        <v>10.55306151109963</v>
       </c>
       <c r="N8">
-        <v>6.49072219056109</v>
+        <v>6.056933762637546</v>
       </c>
       <c r="O8">
-        <v>9.381002836335254</v>
+        <v>10.92735375606875</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.70655114303082</v>
       </c>
       <c r="Q8">
-        <v>16.20459394385326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.381118265738987</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.70731307718865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.50539871333448</v>
+        <v>14.47167543934824</v>
       </c>
       <c r="C9">
-        <v>7.668200234360989</v>
+        <v>7.469158511090969</v>
       </c>
       <c r="D9">
-        <v>6.229883434209033</v>
+        <v>6.301030681003547</v>
       </c>
       <c r="E9">
-        <v>8.229408540126984</v>
+        <v>8.139875601712612</v>
       </c>
       <c r="F9">
-        <v>21.94496895938663</v>
+        <v>21.23701768893848</v>
       </c>
       <c r="G9">
-        <v>24.40191424225175</v>
+        <v>23.14273682709648</v>
       </c>
       <c r="H9">
-        <v>2.791952260623242</v>
+        <v>2.675391407257602</v>
       </c>
       <c r="J9">
-        <v>9.749749382028321</v>
+        <v>9.674015876947024</v>
       </c>
       <c r="K9">
-        <v>15.9056277984497</v>
+        <v>15.20813693060428</v>
       </c>
       <c r="L9">
-        <v>6.160752739517113</v>
+        <v>12.09345321549018</v>
       </c>
       <c r="M9">
-        <v>12.14835829686228</v>
+        <v>10.34260081500415</v>
       </c>
       <c r="N9">
-        <v>6.832124572671777</v>
+        <v>6.093933685406152</v>
       </c>
       <c r="O9">
-        <v>10.26017161642629</v>
+        <v>12.25513338939591</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.046948792520384</v>
       </c>
       <c r="Q9">
-        <v>16.00826477732293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.27426864374267</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.4647807035617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.74887684817451</v>
+        <v>15.68182949596201</v>
       </c>
       <c r="C10">
-        <v>7.87041701724948</v>
+        <v>7.79372586481916</v>
       </c>
       <c r="D10">
-        <v>6.506878693688341</v>
+        <v>6.595860346863848</v>
       </c>
       <c r="E10">
-        <v>8.311985075697752</v>
+        <v>8.210606433483939</v>
       </c>
       <c r="F10">
-        <v>21.99896234462685</v>
+        <v>21.17471381722168</v>
       </c>
       <c r="G10">
-        <v>24.38243183610026</v>
+        <v>23.36189098274694</v>
       </c>
       <c r="H10">
-        <v>2.512418017809479</v>
+        <v>2.420446430790957</v>
       </c>
       <c r="J10">
-        <v>9.623130567266237</v>
+        <v>9.428896722056388</v>
       </c>
       <c r="K10">
-        <v>15.61806701404821</v>
+        <v>14.87148805843386</v>
       </c>
       <c r="L10">
-        <v>6.177624413677182</v>
+        <v>11.76601031477286</v>
       </c>
       <c r="M10">
-        <v>13.03300134376089</v>
+        <v>10.2193654042498</v>
       </c>
       <c r="N10">
-        <v>7.014320917091007</v>
+        <v>6.109457550101896</v>
       </c>
       <c r="O10">
-        <v>10.81793557937884</v>
+        <v>13.14866120644974</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.227968736581049</v>
       </c>
       <c r="Q10">
-        <v>15.84776141932439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.84129499066041</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.22803636411537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.24270992669098</v>
+        <v>16.1863164273657</v>
       </c>
       <c r="C11">
-        <v>8.198475408612715</v>
+        <v>8.13872813450349</v>
       </c>
       <c r="D11">
-        <v>6.330535247623338</v>
+        <v>6.447259302668823</v>
       </c>
       <c r="E11">
-        <v>7.854203097707324</v>
+        <v>7.76931679507433</v>
       </c>
       <c r="F11">
-        <v>21.1063267535412</v>
+        <v>20.21445934939142</v>
       </c>
       <c r="G11">
-        <v>23.13582854537766</v>
+        <v>22.92063559359282</v>
       </c>
       <c r="H11">
-        <v>3.288408930258601</v>
+        <v>3.226909698309066</v>
       </c>
       <c r="J11">
-        <v>9.36588048289943</v>
+        <v>8.964971481118351</v>
       </c>
       <c r="K11">
-        <v>15.04901745085759</v>
+        <v>14.31131755331927</v>
       </c>
       <c r="L11">
-        <v>6.135385824989662</v>
+        <v>11.34277202575554</v>
       </c>
       <c r="M11">
-        <v>13.52121198299701</v>
+        <v>9.827611537173132</v>
       </c>
       <c r="N11">
-        <v>6.60523135305736</v>
+        <v>6.081763406362358</v>
       </c>
       <c r="O11">
-        <v>10.66414282483421</v>
+        <v>13.61892864025306</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.802942949383555</v>
       </c>
       <c r="Q11">
-        <v>15.26845281796648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.68930745636059</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.60591394726901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.40761172743427</v>
+        <v>16.36527065236392</v>
       </c>
       <c r="C12">
-        <v>8.454651120987815</v>
+        <v>8.384148062444572</v>
       </c>
       <c r="D12">
-        <v>6.120667890899851</v>
+        <v>6.24692646212356</v>
       </c>
       <c r="E12">
-        <v>7.531085538087605</v>
+        <v>7.458599124080129</v>
       </c>
       <c r="F12">
-        <v>20.33524076207213</v>
+        <v>19.4527415246517</v>
       </c>
       <c r="G12">
-        <v>22.07818070022144</v>
+        <v>22.25187329489155</v>
       </c>
       <c r="H12">
-        <v>4.517610197764254</v>
+        <v>4.474221224106849</v>
       </c>
       <c r="J12">
-        <v>9.175242269671301</v>
+        <v>8.746495796408034</v>
       </c>
       <c r="K12">
-        <v>14.64084387274679</v>
+        <v>13.94392959220123</v>
       </c>
       <c r="L12">
-        <v>6.150717340358745</v>
+        <v>11.09151752966069</v>
       </c>
       <c r="M12">
-        <v>13.75597636215436</v>
+        <v>9.534211624616692</v>
       </c>
       <c r="N12">
-        <v>6.242656315843812</v>
+        <v>6.109483768134941</v>
       </c>
       <c r="O12">
-        <v>10.41226717719816</v>
+        <v>13.8393772940108</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.427205442617924</v>
       </c>
       <c r="Q12">
-        <v>14.81222592433976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.43622840971099</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.1615671192265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.33502171258178</v>
+        <v>16.30904466511108</v>
       </c>
       <c r="C13">
-        <v>8.668797695057329</v>
+        <v>8.575830147892903</v>
       </c>
       <c r="D13">
-        <v>5.868638257342224</v>
+        <v>5.984835216698793</v>
       </c>
       <c r="E13">
-        <v>7.300715837785318</v>
+        <v>7.238873105847767</v>
       </c>
       <c r="F13">
-        <v>19.61079731905246</v>
+        <v>18.81640223008601</v>
       </c>
       <c r="G13">
-        <v>21.10222161764504</v>
+        <v>21.21313322191983</v>
       </c>
       <c r="H13">
-        <v>5.860373024053471</v>
+        <v>5.824796550074985</v>
       </c>
       <c r="J13">
-        <v>9.025023814739749</v>
+        <v>8.687435803183146</v>
       </c>
       <c r="K13">
-        <v>14.33536720856674</v>
+        <v>13.70843661893314</v>
       </c>
       <c r="L13">
-        <v>6.208091629009926</v>
+        <v>10.94317505584216</v>
       </c>
       <c r="M13">
-        <v>13.81587234478869</v>
+        <v>9.315729404760908</v>
       </c>
       <c r="N13">
-        <v>5.895452399110159</v>
+        <v>6.177119611527172</v>
       </c>
       <c r="O13">
-        <v>10.06435192865608</v>
+        <v>13.88867127116271</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.069054865837514</v>
       </c>
       <c r="Q13">
-        <v>14.42493158062705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.08393252535341</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.84044176367541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.17581563451466</v>
+        <v>16.16259201498005</v>
       </c>
       <c r="C14">
-        <v>8.801245880257564</v>
+        <v>8.687501796588146</v>
       </c>
       <c r="D14">
-        <v>5.671582488910097</v>
+        <v>5.772533775144495</v>
       </c>
       <c r="E14">
-        <v>7.198621842709289</v>
+        <v>7.144245324317086</v>
       </c>
       <c r="F14">
-        <v>19.13047403853773</v>
+        <v>18.42772107960241</v>
       </c>
       <c r="G14">
-        <v>20.46552019317295</v>
+        <v>20.35026844477871</v>
       </c>
       <c r="H14">
-        <v>6.833181685614162</v>
+        <v>6.800154129530263</v>
       </c>
       <c r="J14">
-        <v>8.939744708540454</v>
+        <v>8.701075860114347</v>
       </c>
       <c r="K14">
-        <v>14.17382274217999</v>
+        <v>13.60300286277181</v>
       </c>
       <c r="L14">
-        <v>6.272284959094508</v>
+        <v>10.8797736393143</v>
       </c>
       <c r="M14">
-        <v>13.7794939982722</v>
+        <v>9.202519645871188</v>
       </c>
       <c r="N14">
-        <v>5.666177579001996</v>
+        <v>6.24663826422035</v>
       </c>
       <c r="O14">
-        <v>9.773885581664858</v>
+        <v>13.84630891498612</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.83354288374283</v>
       </c>
       <c r="Q14">
-        <v>14.18944931122963</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.788856102288975</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.6705503062494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.08545190510292</v>
+        <v>16.0759771295057</v>
       </c>
       <c r="C15">
-        <v>8.821670898730131</v>
+        <v>8.701242045191496</v>
       </c>
       <c r="D15">
-        <v>5.614740164715818</v>
+        <v>5.708580452757524</v>
       </c>
       <c r="E15">
-        <v>7.182300664632385</v>
+        <v>7.130140479530852</v>
       </c>
       <c r="F15">
-        <v>19.02546077156247</v>
+        <v>18.35735788242262</v>
       </c>
       <c r="G15">
-        <v>20.33114677444676</v>
+        <v>20.08921229740598</v>
       </c>
       <c r="H15">
-        <v>7.062284924291082</v>
+        <v>7.029090565894526</v>
       </c>
       <c r="J15">
-        <v>8.927858208784784</v>
+        <v>8.728655793772141</v>
       </c>
       <c r="K15">
-        <v>14.15537047955101</v>
+        <v>13.60118508551192</v>
       </c>
       <c r="L15">
-        <v>6.289201901463448</v>
+        <v>10.87955935778887</v>
       </c>
       <c r="M15">
-        <v>13.73266643936643</v>
+        <v>9.191504060850717</v>
       </c>
       <c r="N15">
-        <v>5.61111453797053</v>
+        <v>6.264382255393584</v>
       </c>
       <c r="O15">
-        <v>9.682788708307221</v>
+        <v>13.79870297925895</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.777604649744178</v>
       </c>
       <c r="Q15">
-        <v>14.14769519944216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.695951242229816</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.65267133092065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.58843581053266</v>
+        <v>15.5854812267021</v>
       </c>
       <c r="C16">
-        <v>8.690559624303202</v>
+        <v>8.552649592375559</v>
       </c>
       <c r="D16">
-        <v>5.539448444786982</v>
+        <v>5.605418462081229</v>
       </c>
       <c r="E16">
-        <v>7.190256524412241</v>
+        <v>7.141786858027442</v>
       </c>
       <c r="F16">
-        <v>19.14753298492194</v>
+        <v>18.58382241463919</v>
       </c>
       <c r="G16">
-        <v>20.53602281997665</v>
+        <v>19.72174582706259</v>
       </c>
       <c r="H16">
-        <v>6.882828221037343</v>
+        <v>6.842167921506659</v>
       </c>
       <c r="J16">
-        <v>9.013146635179547</v>
+        <v>8.96696987663444</v>
       </c>
       <c r="K16">
-        <v>14.34416681099404</v>
+        <v>13.81821251398499</v>
       </c>
       <c r="L16">
-        <v>6.264394951102492</v>
+        <v>11.02374462083622</v>
       </c>
       <c r="M16">
-        <v>13.3610781435988</v>
+        <v>9.338244380791208</v>
       </c>
       <c r="N16">
-        <v>5.598480313390995</v>
+        <v>6.237009592921028</v>
       </c>
       <c r="O16">
-        <v>9.503827240095147</v>
+        <v>13.43287909349256</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.77059241537777</v>
       </c>
       <c r="Q16">
-        <v>14.29717620290915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.511081717451459</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.86993113241924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.28735346654131</v>
+        <v>15.2833061066354</v>
       </c>
       <c r="C17">
-        <v>8.516979470690416</v>
+        <v>8.37111191051368</v>
       </c>
       <c r="D17">
-        <v>5.588821423007136</v>
+        <v>5.645015716000708</v>
       </c>
       <c r="E17">
-        <v>7.24152940874648</v>
+        <v>7.19061159567033</v>
       </c>
       <c r="F17">
-        <v>19.49536035168991</v>
+        <v>18.9544247958982</v>
       </c>
       <c r="G17">
-        <v>21.02874815397361</v>
+        <v>19.96730366033385</v>
       </c>
       <c r="H17">
-        <v>6.201546869084689</v>
+        <v>6.1523394601696</v>
       </c>
       <c r="J17">
-        <v>9.123465130242225</v>
+        <v>9.141907209516717</v>
       </c>
       <c r="K17">
-        <v>14.57207969869803</v>
+        <v>14.03886386541379</v>
       </c>
       <c r="L17">
-        <v>6.207881147603963</v>
+        <v>11.17791826787678</v>
       </c>
       <c r="M17">
-        <v>13.09041619579218</v>
+        <v>9.501595243683832</v>
       </c>
       <c r="N17">
-        <v>5.707618198382136</v>
+        <v>6.176414869956115</v>
       </c>
       <c r="O17">
-        <v>9.524887363120992</v>
+        <v>13.16867081428595</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.88668186291883</v>
       </c>
       <c r="Q17">
-        <v>14.53539830847804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.530585875042561</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.1206491006353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.12851909853162</v>
+        <v>15.11529651257826</v>
       </c>
       <c r="C18">
-        <v>8.295915834151355</v>
+        <v>8.152975952195444</v>
       </c>
       <c r="D18">
-        <v>5.751312821994568</v>
+        <v>5.806315086328462</v>
       </c>
       <c r="E18">
-        <v>7.387714838677886</v>
+        <v>7.327903156026609</v>
       </c>
       <c r="F18">
-        <v>20.0796642591848</v>
+        <v>19.5147536352362</v>
       </c>
       <c r="G18">
-        <v>21.82920022960814</v>
+        <v>20.62093338011187</v>
       </c>
       <c r="H18">
-        <v>5.057448850302588</v>
+        <v>4.995378742693867</v>
       </c>
       <c r="J18">
-        <v>9.268918880627018</v>
+        <v>9.30546193548108</v>
       </c>
       <c r="K18">
-        <v>14.86903271481412</v>
+        <v>14.30448494152173</v>
       </c>
       <c r="L18">
-        <v>6.142808483558579</v>
+        <v>11.37267996659453</v>
       </c>
       <c r="M18">
-        <v>12.88161169862475</v>
+        <v>9.704260305713847</v>
       </c>
       <c r="N18">
-        <v>5.953019963776797</v>
+        <v>6.104683853747445</v>
       </c>
       <c r="O18">
-        <v>9.720299184251719</v>
+        <v>12.96933005100395</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.141096161136527</v>
       </c>
       <c r="Q18">
-        <v>14.87987789812325</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.727608123412587</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.44597729443768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.09890539760583</v>
+        <v>15.07028279716407</v>
       </c>
       <c r="C19">
-        <v>8.065978644663618</v>
+        <v>7.933045560324292</v>
       </c>
       <c r="D19">
-        <v>5.991593904699641</v>
+        <v>6.05011179372998</v>
       </c>
       <c r="E19">
-        <v>7.670903476584819</v>
+        <v>7.596881038935825</v>
       </c>
       <c r="F19">
-        <v>20.82187800940392</v>
+        <v>20.20329157491114</v>
       </c>
       <c r="G19">
-        <v>22.83497156059931</v>
+        <v>21.51853558624832</v>
       </c>
       <c r="H19">
-        <v>3.770756536913738</v>
+        <v>3.689439812660093</v>
       </c>
       <c r="J19">
-        <v>9.435177605926215</v>
+        <v>9.463147111882618</v>
       </c>
       <c r="K19">
-        <v>15.21614746619084</v>
+        <v>14.60301225258176</v>
       </c>
       <c r="L19">
-        <v>6.112997546834091</v>
+        <v>11.59696620922064</v>
       </c>
       <c r="M19">
-        <v>12.74229716266533</v>
+        <v>9.935671707027295</v>
       </c>
       <c r="N19">
-        <v>6.314341348992514</v>
+        <v>6.065063016413466</v>
       </c>
       <c r="O19">
-        <v>10.03726708979874</v>
+        <v>12.84163704557118</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.512945182606078</v>
       </c>
       <c r="Q19">
-        <v>15.29307711187405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.04834018984513</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.8197345391201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.43190486101992</v>
+        <v>15.37151272947422</v>
       </c>
       <c r="C20">
-        <v>7.818748892185787</v>
+        <v>7.719538722845994</v>
       </c>
       <c r="D20">
-        <v>6.433587928495908</v>
+        <v>6.508277171033197</v>
       </c>
       <c r="E20">
-        <v>8.287542240657009</v>
+        <v>8.187652541657</v>
       </c>
       <c r="F20">
-        <v>21.97602138119019</v>
+        <v>21.21902926722512</v>
       </c>
       <c r="G20">
-        <v>24.37449802462838</v>
+        <v>23.07555020589417</v>
       </c>
       <c r="H20">
-        <v>2.58435728171052</v>
+        <v>2.48456333374576</v>
       </c>
       <c r="J20">
-        <v>9.654069487587275</v>
+        <v>9.580878382315092</v>
       </c>
       <c r="K20">
-        <v>15.68890116867091</v>
+        <v>14.973401999955</v>
       </c>
       <c r="L20">
-        <v>6.172749696621118</v>
+        <v>11.86083101461874</v>
       </c>
       <c r="M20">
-        <v>12.80724323160733</v>
+        <v>10.25881623577673</v>
       </c>
       <c r="N20">
-        <v>6.96442639226799</v>
+        <v>6.105807030274252</v>
       </c>
       <c r="O20">
-        <v>10.67219506593864</v>
+        <v>12.92380267905142</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.178704924288932</v>
       </c>
       <c r="Q20">
-        <v>15.88428640144374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.69225117085772</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.31159772269422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.34774947022484</v>
+        <v>16.26953160614569</v>
       </c>
       <c r="C21">
-        <v>7.932633673105418</v>
+        <v>7.879147104739594</v>
       </c>
       <c r="D21">
-        <v>6.694360628785177</v>
+        <v>6.833984222365687</v>
       </c>
       <c r="E21">
-        <v>8.448547274479887</v>
+        <v>8.346114676062651</v>
       </c>
       <c r="F21">
-        <v>22.20340079012612</v>
+        <v>21.15018542692998</v>
       </c>
       <c r="G21">
-        <v>24.61709101107105</v>
+        <v>24.66583225010657</v>
       </c>
       <c r="H21">
-        <v>2.337517432188833</v>
+        <v>2.263214855042881</v>
       </c>
       <c r="J21">
-        <v>9.599772715842892</v>
+        <v>9.00835700748071</v>
       </c>
       <c r="K21">
-        <v>15.56149818696416</v>
+        <v>14.69961985194135</v>
       </c>
       <c r="L21">
-        <v>6.201303709478143</v>
+        <v>11.604304937505</v>
       </c>
       <c r="M21">
-        <v>13.43960075922246</v>
+        <v>10.16900554023607</v>
       </c>
       <c r="N21">
-        <v>7.191527913170767</v>
+        <v>6.126169943805966</v>
       </c>
       <c r="O21">
-        <v>11.15720655540507</v>
+        <v>13.54863563244127</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.405494412898285</v>
       </c>
       <c r="Q21">
-        <v>15.86852923068501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.18947890680173</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.08398151429893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.9176213614923</v>
+        <v>16.83032275024104</v>
       </c>
       <c r="C22">
-        <v>8.018864047699408</v>
+        <v>7.991159072168348</v>
       </c>
       <c r="D22">
-        <v>6.843529473963731</v>
+        <v>7.028603777617705</v>
       </c>
       <c r="E22">
-        <v>8.520706171317563</v>
+        <v>8.419556576046535</v>
       </c>
       <c r="F22">
-        <v>22.30860192479733</v>
+        <v>21.04891329012374</v>
       </c>
       <c r="G22">
-        <v>24.7206832518046</v>
+        <v>25.80037170688752</v>
       </c>
       <c r="H22">
-        <v>2.191454592451704</v>
+        <v>2.133255498473743</v>
       </c>
       <c r="J22">
-        <v>9.556052282153733</v>
+        <v>8.676236869006713</v>
       </c>
       <c r="K22">
-        <v>15.45872282989603</v>
+        <v>14.49524273422479</v>
       </c>
       <c r="L22">
-        <v>6.214256277909478</v>
+        <v>11.42445025758844</v>
       </c>
       <c r="M22">
-        <v>13.84291804670975</v>
+        <v>10.09736836386689</v>
       </c>
       <c r="N22">
-        <v>7.307680888858757</v>
+        <v>6.134818090670517</v>
       </c>
       <c r="O22">
-        <v>11.44179324952744</v>
+        <v>13.94569740167495</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.520909331549889</v>
       </c>
       <c r="Q22">
-        <v>15.83683659355891</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.48144037149001</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.90281322110907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.61585585229543</v>
+        <v>16.53195808938552</v>
       </c>
       <c r="C23">
-        <v>7.97295006860266</v>
+        <v>7.937804768905386</v>
       </c>
       <c r="D23">
-        <v>6.76424159554289</v>
+        <v>6.918043973916602</v>
       </c>
       <c r="E23">
-        <v>8.48224359453466</v>
+        <v>8.378839960237586</v>
       </c>
       <c r="F23">
-        <v>22.25138404582456</v>
+        <v>21.12891321455409</v>
       </c>
       <c r="G23">
-        <v>24.66358094600816</v>
+        <v>25.01787732598098</v>
       </c>
       <c r="H23">
-        <v>2.269128042936149</v>
+        <v>2.201562609565284</v>
       </c>
       <c r="J23">
-        <v>9.579030703035709</v>
+        <v>8.89058386740434</v>
       </c>
       <c r="K23">
-        <v>15.51289442479567</v>
+        <v>14.61694198544145</v>
       </c>
       <c r="L23">
-        <v>6.207372527482005</v>
+        <v>11.52812197163122</v>
       </c>
       <c r="M23">
-        <v>13.62914308302493</v>
+        <v>10.14589983693479</v>
       </c>
       <c r="N23">
-        <v>7.245897337213123</v>
+        <v>6.130745349429517</v>
       </c>
       <c r="O23">
-        <v>11.29071598826955</v>
+        <v>13.7374002514251</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.459804442348281</v>
       </c>
       <c r="Q23">
-        <v>15.8528981146167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.32581303474983</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.01868866547152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.42039718743658</v>
+        <v>15.35857266042097</v>
       </c>
       <c r="C24">
-        <v>7.796724903752279</v>
+        <v>7.696562638202238</v>
       </c>
       <c r="D24">
-        <v>6.456975086446952</v>
+        <v>6.531647592128009</v>
       </c>
       <c r="E24">
-        <v>8.335502162467415</v>
+        <v>8.233977047075204</v>
       </c>
       <c r="F24">
-        <v>22.0579059527586</v>
+        <v>21.29660275089367</v>
       </c>
       <c r="G24">
-        <v>24.48643294063009</v>
+        <v>23.1676066723016</v>
       </c>
       <c r="H24">
-        <v>2.569616057715775</v>
+        <v>2.469603542007212</v>
       </c>
       <c r="J24">
-        <v>9.673730443527925</v>
+        <v>9.6027172128749</v>
       </c>
       <c r="K24">
-        <v>15.7327058440358</v>
+        <v>15.01207408728573</v>
       </c>
       <c r="L24">
-        <v>6.180645782182176</v>
+        <v>11.89055980412949</v>
       </c>
       <c r="M24">
-        <v>12.78703850343832</v>
+        <v>10.28762960647765</v>
       </c>
       <c r="N24">
-        <v>7.007420080108692</v>
+        <v>6.112264387390208</v>
       </c>
       <c r="O24">
-        <v>10.70098018113995</v>
+        <v>12.90475711061284</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.222938957334405</v>
       </c>
       <c r="Q24">
-        <v>15.93205812631647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.72132935422592</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.35601204893671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.01766052078926</v>
+        <v>13.99836527586376</v>
       </c>
       <c r="C25">
-        <v>7.602039253882317</v>
+        <v>7.354581721008374</v>
       </c>
       <c r="D25">
-        <v>6.111995926619318</v>
+        <v>6.17812380005907</v>
       </c>
       <c r="E25">
-        <v>8.175116368982456</v>
+        <v>8.091205633929333</v>
       </c>
       <c r="F25">
-        <v>21.89694929777616</v>
+        <v>21.2269221282151</v>
       </c>
       <c r="G25">
-        <v>24.3742085771249</v>
+        <v>23.07720077196892</v>
       </c>
       <c r="H25">
-        <v>2.907805834500212</v>
+        <v>2.782151133067616</v>
       </c>
       <c r="J25">
-        <v>9.791372723024759</v>
+        <v>9.742462810835194</v>
       </c>
       <c r="K25">
-        <v>15.99912925475326</v>
+        <v>15.31792388604021</v>
       </c>
       <c r="L25">
-        <v>6.150339941541167</v>
+        <v>12.20483516968449</v>
       </c>
       <c r="M25">
-        <v>11.81030445064713</v>
+        <v>10.38900028690305</v>
       </c>
       <c r="N25">
-        <v>6.741430302562411</v>
+        <v>6.084634344685588</v>
       </c>
       <c r="O25">
-        <v>10.02942342185252</v>
+        <v>11.91245279379386</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.95637385064922</v>
       </c>
       <c r="Q25">
-        <v>16.05399979906381</v>
+        <v>10.03965690164979</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.53461689605559</v>
       </c>
     </row>
   </sheetData>
